--- a/2. Cronogramas_CS HUACCANA.xlsx
+++ b/2. Cronogramas_CS HUACCANA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0. REVISION_TdR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00E0A7-3A8C-4331-ACEA-72210575AB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B2582-A2AC-4A02-B118-9E813B9D2BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="786" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5655" windowWidth="13800" windowHeight="9495" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma- Gral-HUACCANA" sheetId="3" r:id="rId1"/>
@@ -2316,36 +2316,192 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,162 +2515,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2937,14 +2937,15 @@
   </sheetPr>
   <dimension ref="B1:BX87"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="8" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13" style="8" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="77.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="8" customWidth="1"/>
@@ -2980,11 +2981,11 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="2:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="223"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220"/>
       <c r="G2" s="228" t="s">
         <v>9</v>
       </c>
@@ -2996,69 +2997,69 @@
       <c r="M2" s="229"/>
       <c r="N2" s="229"/>
       <c r="O2" s="230"/>
-      <c r="P2" s="252" t="s">
+      <c r="P2" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="252"/>
-      <c r="AD2" s="252"/>
-      <c r="AE2" s="252"/>
-      <c r="AF2" s="252"/>
-      <c r="AG2" s="252"/>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="252"/>
-      <c r="AJ2" s="252"/>
-      <c r="AK2" s="252"/>
-      <c r="AL2" s="252"/>
-      <c r="AM2" s="252"/>
-      <c r="AN2" s="252"/>
-      <c r="AO2" s="252"/>
-      <c r="AP2" s="252"/>
-      <c r="AQ2" s="252"/>
-      <c r="AR2" s="252"/>
-      <c r="AS2" s="252"/>
-      <c r="AT2" s="252"/>
-      <c r="AU2" s="252"/>
-      <c r="AV2" s="252"/>
-      <c r="AW2" s="252"/>
-      <c r="AX2" s="252"/>
-      <c r="AY2" s="253"/>
-      <c r="AZ2" s="253"/>
-      <c r="BA2" s="253"/>
-      <c r="BB2" s="253"/>
-      <c r="BC2" s="253"/>
-      <c r="BD2" s="253"/>
-      <c r="BE2" s="253"/>
-      <c r="BF2" s="253"/>
-      <c r="BG2" s="253"/>
-      <c r="BH2" s="253"/>
-      <c r="BI2" s="253"/>
-      <c r="BJ2" s="253"/>
-      <c r="BK2" s="253"/>
-      <c r="BL2" s="253"/>
-      <c r="BM2" s="253"/>
-      <c r="BN2" s="253"/>
-      <c r="BO2" s="253"/>
-      <c r="BP2" s="253"/>
-      <c r="BQ2" s="253"/>
-      <c r="BR2" s="253"/>
-      <c r="BS2" s="253"/>
-      <c r="BT2" s="253"/>
-      <c r="BU2" s="253"/>
-      <c r="BV2" s="253"/>
-      <c r="BW2" s="253"/>
-      <c r="BX2" s="253"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="189"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="189"/>
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="189"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="189"/>
+      <c r="BM2" s="189"/>
+      <c r="BN2" s="189"/>
+      <c r="BO2" s="189"/>
+      <c r="BP2" s="189"/>
+      <c r="BQ2" s="189"/>
+      <c r="BR2" s="189"/>
+      <c r="BS2" s="189"/>
+      <c r="BT2" s="189"/>
+      <c r="BU2" s="189"/>
+      <c r="BV2" s="189"/>
+      <c r="BW2" s="189"/>
+      <c r="BX2" s="189"/>
     </row>
     <row r="3" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="107" t="s">
@@ -3491,18 +3492,18 @@
       </c>
     </row>
     <row r="5" spans="2:76" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="192" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="210"/>
       <c r="J5" s="11">
         <v>43808</v>
       </c>
@@ -3511,74 +3512,74 @@
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
-      <c r="T5" s="250"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="201"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="254"/>
-      <c r="X5" s="254"/>
-      <c r="Y5" s="254"/>
-      <c r="Z5" s="254"/>
-      <c r="AA5" s="254"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="254"/>
-      <c r="AH5" s="254"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
       <c r="AI5" s="75"/>
       <c r="AJ5" s="75"/>
-      <c r="AK5" s="254"/>
-      <c r="AL5" s="254"/>
-      <c r="AM5" s="254"/>
-      <c r="AN5" s="254"/>
-      <c r="AO5" s="254"/>
+      <c r="AK5" s="190"/>
+      <c r="AL5" s="190"/>
+      <c r="AM5" s="190"/>
+      <c r="AN5" s="190"/>
+      <c r="AO5" s="190"/>
       <c r="AP5" s="75"/>
       <c r="AQ5" s="75"/>
-      <c r="AR5" s="247"/>
-      <c r="AS5" s="247"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
+      <c r="AR5" s="191"/>
+      <c r="AS5" s="191"/>
+      <c r="AT5" s="191"/>
+      <c r="AU5" s="191"/>
+      <c r="AV5" s="191"/>
       <c r="AW5" s="75"/>
       <c r="AX5" s="75"/>
-      <c r="AY5" s="247"/>
-      <c r="AZ5" s="247"/>
-      <c r="BA5" s="247"/>
-      <c r="BB5" s="247"/>
-      <c r="BC5" s="247"/>
+      <c r="AY5" s="191"/>
+      <c r="AZ5" s="191"/>
+      <c r="BA5" s="191"/>
+      <c r="BB5" s="191"/>
+      <c r="BC5" s="191"/>
       <c r="BD5" s="75"/>
       <c r="BE5" s="75"/>
-      <c r="BF5" s="247"/>
-      <c r="BG5" s="247"/>
-      <c r="BH5" s="247"/>
-      <c r="BI5" s="247"/>
-      <c r="BJ5" s="247"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="191"/>
+      <c r="BH5" s="191"/>
+      <c r="BI5" s="191"/>
+      <c r="BJ5" s="191"/>
       <c r="BK5" s="75"/>
       <c r="BL5" s="75"/>
-      <c r="BM5" s="247"/>
-      <c r="BN5" s="247"/>
-      <c r="BO5" s="247"/>
-      <c r="BP5" s="247"/>
-      <c r="BQ5" s="247"/>
+      <c r="BM5" s="191"/>
+      <c r="BN5" s="191"/>
+      <c r="BO5" s="191"/>
+      <c r="BP5" s="191"/>
+      <c r="BQ5" s="191"/>
       <c r="BR5" s="75"/>
       <c r="BS5" s="75"/>
-      <c r="BT5" s="247"/>
-      <c r="BU5" s="247"/>
-      <c r="BV5" s="247"/>
-      <c r="BW5" s="247"/>
-      <c r="BX5" s="247"/>
+      <c r="BT5" s="191"/>
+      <c r="BU5" s="191"/>
+      <c r="BV5" s="191"/>
+      <c r="BW5" s="191"/>
+      <c r="BX5" s="191"/>
     </row>
     <row r="6" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="215">
+      <c r="B6" s="221">
         <v>45082</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="209" t="s">
+      <c r="C6" s="221"/>
+      <c r="D6" s="239" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="224" t="s">
@@ -3596,20 +3597,20 @@
       <c r="I6" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="231">
+      <c r="J6" s="195">
         <v>43808</v>
       </c>
-      <c r="K6" s="231">
+      <c r="K6" s="195">
         <v>43815</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="233">
+      <c r="M6" s="231">
         <v>1</v>
       </c>
       <c r="N6" s="87"/>
-      <c r="O6" s="235">
+      <c r="O6" s="233">
         <v>34000</v>
       </c>
       <c r="P6" s="66"/>
@@ -3675,9 +3676,9 @@
       <c r="BX6" s="66"/>
     </row>
     <row r="7" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="210"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="224"/>
       <c r="F7" s="80" t="s">
         <v>31</v>
@@ -3685,12 +3686,12 @@
       <c r="G7" s="225"/>
       <c r="H7" s="226"/>
       <c r="I7" s="227"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="234"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="232"/>
       <c r="N7" s="83"/>
-      <c r="O7" s="236"/>
+      <c r="O7" s="234"/>
       <c r="P7" s="66"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
@@ -3754,14 +3755,14 @@
       <c r="BX7" s="67"/>
     </row>
     <row r="8" spans="2:76" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="210"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="224"/>
       <c r="F8" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="242" t="s">
+      <c r="G8" s="206" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="80" t="s">
@@ -3783,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="83"/>
-      <c r="O8" s="236"/>
+      <c r="O8" s="234"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
@@ -3847,14 +3848,14 @@
       <c r="BX8" s="67"/>
     </row>
     <row r="9" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="210"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="224"/>
       <c r="F9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="242"/>
+      <c r="G9" s="206"/>
       <c r="H9" s="88" t="s">
         <v>36</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="84"/>
-      <c r="O9" s="236"/>
+      <c r="O9" s="234"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
@@ -3938,14 +3939,14 @@
       <c r="BX9" s="67"/>
     </row>
     <row r="10" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="210"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="224"/>
       <c r="F10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="242"/>
+      <c r="G10" s="206"/>
       <c r="H10" s="88" t="s">
         <v>40</v>
       </c>
@@ -3963,7 +3964,7 @@
       </c>
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="236"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="66"/>
@@ -4027,14 +4028,14 @@
       <c r="BX10" s="67"/>
     </row>
     <row r="11" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="210"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="224"/>
       <c r="F11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="242"/>
+      <c r="G11" s="206"/>
       <c r="H11" s="19" t="s">
         <v>44</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="84"/>
-      <c r="O11" s="236"/>
+      <c r="O11" s="234"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="66"/>
@@ -4118,14 +4119,14 @@
       <c r="BX11" s="67"/>
     </row>
     <row r="12" spans="2:76" s="16" customFormat="1" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="210"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="224"/>
       <c r="F12" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="242"/>
+      <c r="G12" s="206"/>
       <c r="H12" s="88" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="24"/>
-      <c r="O12" s="236"/>
+      <c r="O12" s="234"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
@@ -4209,14 +4210,14 @@
       <c r="BX12" s="67"/>
     </row>
     <row r="13" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="210"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="224"/>
       <c r="F13" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="242"/>
+      <c r="G13" s="206"/>
       <c r="H13" s="88" t="s">
         <v>50</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="236"/>
+      <c r="O13" s="234"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
@@ -4300,14 +4301,14 @@
       <c r="BX13" s="67"/>
     </row>
     <row r="14" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="210"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="224"/>
       <c r="F14" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="242"/>
+      <c r="G14" s="206"/>
       <c r="H14" s="88" t="s">
         <v>51</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>0.9</v>
       </c>
       <c r="N14" s="84"/>
-      <c r="O14" s="236"/>
+      <c r="O14" s="234"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -4391,14 +4392,14 @@
       <c r="BX14" s="67"/>
     </row>
     <row r="15" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="216"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="210"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="224"/>
       <c r="F15" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="242"/>
+      <c r="G15" s="206"/>
       <c r="H15" s="88" t="s">
         <v>52</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="24"/>
-      <c r="O15" s="236"/>
+      <c r="O15" s="234"/>
       <c r="P15" s="66"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="66"/>
@@ -4482,14 +4483,14 @@
       <c r="BX15" s="67"/>
     </row>
     <row r="16" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="216"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="210"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="224"/>
       <c r="F16" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="242"/>
+      <c r="G16" s="206"/>
       <c r="H16" s="88" t="s">
         <v>56</v>
       </c>
@@ -4511,7 +4512,7 @@
       <c r="N16" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="236"/>
+      <c r="O16" s="234"/>
       <c r="P16" s="66"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
@@ -4575,14 +4576,14 @@
       <c r="BX16" s="67"/>
     </row>
     <row r="17" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="210"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="224"/>
       <c r="F17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="242"/>
+      <c r="G17" s="206"/>
       <c r="H17" s="88" t="s">
         <v>59</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="84"/>
-      <c r="O17" s="236"/>
+      <c r="O17" s="234"/>
       <c r="P17" s="66"/>
       <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
@@ -4666,14 +4667,14 @@
       <c r="BX17" s="67"/>
     </row>
     <row r="18" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="210"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="224"/>
       <c r="F18" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="242"/>
+      <c r="G18" s="206"/>
       <c r="H18" s="26" t="s">
         <v>62</v>
       </c>
@@ -4691,7 +4692,7 @@
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="83"/>
-      <c r="O18" s="236"/>
+      <c r="O18" s="234"/>
       <c r="P18" s="66"/>
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
@@ -4755,24 +4756,24 @@
       <c r="BX18" s="67"/>
     </row>
     <row r="19" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="210"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="224"/>
       <c r="F19" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="242"/>
-      <c r="H19" s="243" t="s">
+      <c r="G19" s="206"/>
+      <c r="H19" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="241"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="251"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="80"/>
       <c r="N19" s="83"/>
-      <c r="O19" s="236"/>
+      <c r="O19" s="234"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
@@ -4836,22 +4837,22 @@
       <c r="BX19" s="67"/>
     </row>
     <row r="20" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="210"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="224"/>
       <c r="F20" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="242"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="244"/>
-      <c r="L20" s="251"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="80"/>
       <c r="N20" s="83"/>
-      <c r="O20" s="236"/>
+      <c r="O20" s="234"/>
       <c r="P20" s="66"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
@@ -4915,22 +4916,22 @@
       <c r="BX20" s="67"/>
     </row>
     <row r="21" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="210"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="224"/>
       <c r="F21" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="242"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="244"/>
-      <c r="L21" s="251"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="80"/>
       <c r="N21" s="83"/>
-      <c r="O21" s="236"/>
+      <c r="O21" s="234"/>
       <c r="P21" s="66"/>
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
@@ -4994,22 +4995,22 @@
       <c r="BX21" s="67"/>
     </row>
     <row r="22" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="210"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="224"/>
       <c r="F22" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="242"/>
-      <c r="H22" s="243"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="244"/>
-      <c r="K22" s="244"/>
-      <c r="L22" s="251"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="83"/>
       <c r="N22" s="83"/>
-      <c r="O22" s="236"/>
+      <c r="O22" s="234"/>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
@@ -5073,14 +5074,14 @@
       <c r="BX22" s="67"/>
     </row>
     <row r="23" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="210"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="224"/>
       <c r="F23" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="242"/>
+      <c r="G23" s="206"/>
       <c r="H23" s="88" t="s">
         <v>70</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="83"/>
-      <c r="O23" s="236"/>
+      <c r="O23" s="234"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
       <c r="R23" s="66"/>
@@ -5164,14 +5165,14 @@
       <c r="BX23" s="67"/>
     </row>
     <row r="24" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="210"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="224"/>
       <c r="F24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="242"/>
+      <c r="G24" s="206"/>
       <c r="H24" s="88"/>
       <c r="I24" s="82"/>
       <c r="J24" s="17"/>
@@ -5179,7 +5180,7 @@
       <c r="L24" s="83"/>
       <c r="M24" s="84"/>
       <c r="N24" s="83"/>
-      <c r="O24" s="236"/>
+      <c r="O24" s="234"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="66"/>
       <c r="R24" s="66"/>
@@ -5243,14 +5244,14 @@
       <c r="BX24" s="67"/>
     </row>
     <row r="25" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="216"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="210"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="240"/>
       <c r="E25" s="224"/>
       <c r="F25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="242"/>
+      <c r="G25" s="206"/>
       <c r="H25" s="26" t="s">
         <v>75</v>
       </c>
@@ -5270,7 +5271,7 @@
       <c r="N25" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="236"/>
+      <c r="O25" s="234"/>
       <c r="P25" s="66"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
@@ -5334,12 +5335,12 @@
       <c r="BX25" s="67"/>
     </row>
     <row r="26" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="210"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="240"/>
       <c r="E26" s="224"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="242"/>
+      <c r="G26" s="206"/>
       <c r="H26" s="88" t="s">
         <v>78</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>0.7</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="236"/>
+      <c r="O26" s="234"/>
       <c r="P26" s="92"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="92"/>
@@ -5423,12 +5424,12 @@
       <c r="BX26" s="67"/>
     </row>
     <row r="27" spans="2:76" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="210"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="240"/>
       <c r="E27" s="224"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="242"/>
+      <c r="G27" s="206"/>
       <c r="H27" s="31" t="s">
         <v>79</v>
       </c>
@@ -5450,7 +5451,7 @@
       <c r="N27" s="187">
         <v>44012</v>
       </c>
-      <c r="O27" s="236"/>
+      <c r="O27" s="234"/>
       <c r="P27" s="66"/>
       <c r="Q27" s="66"/>
       <c r="R27" s="66"/>
@@ -5514,32 +5515,32 @@
       <c r="BX27" s="67"/>
     </row>
     <row r="28" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="210"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="240"/>
       <c r="E28" s="224"/>
       <c r="F28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="242"/>
+      <c r="G28" s="206"/>
       <c r="H28" s="226" t="s">
         <v>82</v>
       </c>
       <c r="I28" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="238">
+      <c r="J28" s="203">
         <v>43998</v>
       </c>
-      <c r="K28" s="238">
+      <c r="K28" s="203">
         <v>43998</v>
       </c>
-      <c r="L28" s="232" t="s">
+      <c r="L28" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="245"/>
+      <c r="M28" s="193"/>
       <c r="N28" s="87"/>
-      <c r="O28" s="236"/>
+      <c r="O28" s="234"/>
       <c r="P28" s="66"/>
       <c r="Q28" s="66"/>
       <c r="R28" s="66"/>
@@ -5603,22 +5604,22 @@
       <c r="BX28" s="67"/>
     </row>
     <row r="29" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="211"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="224"/>
       <c r="F29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="242"/>
+      <c r="G29" s="206"/>
       <c r="H29" s="226"/>
       <c r="I29" s="227"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="246"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="194"/>
       <c r="N29" s="87"/>
-      <c r="O29" s="237"/>
+      <c r="O29" s="235"/>
       <c r="P29" s="66"/>
       <c r="Q29" s="66"/>
       <c r="R29" s="66"/>
@@ -5986,18 +5987,18 @@
       </c>
     </row>
     <row r="32" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="192" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="193"/>
-      <c r="I32" s="194"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="210"/>
       <c r="J32" s="28">
         <v>43987</v>
       </c>
@@ -6191,20 +6192,20 @@
       </c>
     </row>
     <row r="33" spans="2:76" s="16" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="218">
+      <c r="B33" s="245">
         <v>45082</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="212" t="s">
+      <c r="C33" s="245"/>
+      <c r="D33" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="208" t="s">
+      <c r="E33" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="204" t="s">
+      <c r="G33" s="213" t="s">
         <v>88</v>
       </c>
       <c r="H33" s="88" t="s">
@@ -6226,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="30"/>
-      <c r="O33" s="195">
+      <c r="O33" s="196">
         <v>85000</v>
       </c>
       <c r="P33" s="66"/>
@@ -6292,14 +6293,14 @@
       <c r="BX33" s="67"/>
     </row>
     <row r="34" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="219"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="208"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="212"/>
       <c r="F34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="204"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="88" t="s">
         <v>91</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="196"/>
+      <c r="O34" s="197"/>
       <c r="P34" s="66"/>
       <c r="Q34" s="66"/>
       <c r="R34" s="66"/>
@@ -6383,14 +6384,14 @@
       <c r="BX34" s="67"/>
     </row>
     <row r="35" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="208"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="204"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="26" t="s">
         <v>93</v>
       </c>
@@ -6412,7 +6413,7 @@
       <c r="N35" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="O35" s="196"/>
+      <c r="O35" s="197"/>
       <c r="P35" s="92"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="92"/>
@@ -6476,14 +6477,14 @@
       <c r="BX35" s="67"/>
     </row>
     <row r="36" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="208"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="212"/>
       <c r="F36" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="204"/>
+      <c r="G36" s="213"/>
       <c r="H36" s="186" t="s">
         <v>95</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="61"/>
-      <c r="O36" s="196"/>
+      <c r="O36" s="197"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
@@ -6567,12 +6568,12 @@
       <c r="BX36" s="67"/>
     </row>
     <row r="37" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="208"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="212"/>
       <c r="F37" s="80"/>
-      <c r="G37" s="204"/>
+      <c r="G37" s="213"/>
       <c r="H37" s="186" t="s">
         <v>96</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="61"/>
-      <c r="O37" s="196"/>
+      <c r="O37" s="197"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
@@ -6656,12 +6657,12 @@
       <c r="BX37" s="67"/>
     </row>
     <row r="38" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="208"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="80"/>
-      <c r="G38" s="204"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="43" t="s">
         <v>97</v>
       </c>
@@ -6679,7 +6680,7 @@
       </c>
       <c r="M38" s="47"/>
       <c r="N38" s="46"/>
-      <c r="O38" s="196"/>
+      <c r="O38" s="197"/>
       <c r="P38" s="66"/>
       <c r="Q38" s="66"/>
       <c r="R38" s="66"/>
@@ -6743,14 +6744,14 @@
       <c r="BX38" s="67"/>
     </row>
     <row r="39" spans="2:76" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="208"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="212"/>
       <c r="F39" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="204"/>
+      <c r="G39" s="213"/>
       <c r="H39" s="88" t="s">
         <v>101</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="83"/>
-      <c r="O39" s="196"/>
+      <c r="O39" s="197"/>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
@@ -6834,14 +6835,14 @@
       <c r="BX39" s="67"/>
     </row>
     <row r="40" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208" t="s">
+      <c r="B40" s="246"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="243"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="204"/>
+      <c r="G40" s="213"/>
       <c r="H40" s="26" t="s">
         <v>103</v>
       </c>
@@ -6861,7 +6862,7 @@
       <c r="N40" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="O40" s="196"/>
+      <c r="O40" s="197"/>
       <c r="P40" s="66"/>
       <c r="Q40" s="66"/>
       <c r="R40" s="66"/>
@@ -6925,12 +6926,12 @@
       <c r="BX40" s="67"/>
     </row>
     <row r="41" spans="2:76" s="16" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="204"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="213"/>
       <c r="H41" s="88" t="s">
         <v>105</v>
       </c>
@@ -6952,7 +6953,7 @@
       <c r="N41" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="O41" s="196"/>
+      <c r="O41" s="197"/>
       <c r="P41" s="92"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="92"/>
@@ -7016,12 +7017,12 @@
       <c r="BX41" s="67"/>
     </row>
     <row r="42" spans="2:76" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="204"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="213"/>
       <c r="H42" s="88" t="s">
         <v>106</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="30"/>
-      <c r="O42" s="196"/>
+      <c r="O42" s="197"/>
       <c r="P42" s="66"/>
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
@@ -7105,12 +7106,12 @@
       <c r="BX42" s="67"/>
     </row>
     <row r="43" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="208"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="204"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="243"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
       <c r="H43" s="88" t="s">
         <v>108</v>
       </c>
@@ -7130,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="30"/>
-      <c r="O43" s="196"/>
+      <c r="O43" s="197"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
@@ -7194,12 +7195,12 @@
       <c r="BX43" s="67"/>
     </row>
     <row r="44" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="204"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="243"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="213"/>
       <c r="H44" s="88" t="s">
         <v>109</v>
       </c>
@@ -7219,7 +7220,7 @@
       <c r="N44" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O44" s="196"/>
+      <c r="O44" s="197"/>
       <c r="P44" s="66"/>
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
@@ -7283,12 +7284,12 @@
       <c r="BX44" s="67"/>
     </row>
     <row r="45" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="204"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="243"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="88" t="s">
         <v>111</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="N45" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O45" s="196"/>
+      <c r="O45" s="197"/>
       <c r="P45" s="66"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
@@ -7372,12 +7373,12 @@
       <c r="BX45" s="67"/>
     </row>
     <row r="46" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="219"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="204"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="213"/>
       <c r="H46" s="88" t="s">
         <v>113</v>
       </c>
@@ -7397,7 +7398,7 @@
       <c r="N46" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O46" s="196"/>
+      <c r="O46" s="197"/>
       <c r="P46" s="66"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
@@ -7461,12 +7462,12 @@
       <c r="BX46" s="67"/>
     </row>
     <row r="47" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="219"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="204"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="243"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="213"/>
       <c r="H47" s="88" t="s">
         <v>114</v>
       </c>
@@ -7486,7 +7487,7 @@
       <c r="N47" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O47" s="196"/>
+      <c r="O47" s="197"/>
       <c r="P47" s="66"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
@@ -7550,12 +7551,12 @@
       <c r="BX47" s="67"/>
     </row>
     <row r="48" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="219"/>
-      <c r="C48" s="219"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="208"/>
-      <c r="G48" s="204"/>
+      <c r="B48" s="246"/>
+      <c r="C48" s="246"/>
+      <c r="D48" s="243"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="213"/>
       <c r="H48" s="88" t="s">
         <v>115</v>
       </c>
@@ -7575,7 +7576,7 @@
       <c r="N48" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="196"/>
+      <c r="O48" s="197"/>
       <c r="P48" s="66"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
@@ -7639,12 +7640,12 @@
       <c r="BX48" s="67"/>
     </row>
     <row r="49" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="219"/>
-      <c r="C49" s="219"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="204"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="243"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="213"/>
       <c r="H49" s="88" t="s">
         <v>117</v>
       </c>
@@ -7664,7 +7665,7 @@
       <c r="N49" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O49" s="196"/>
+      <c r="O49" s="197"/>
       <c r="P49" s="66"/>
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
@@ -7728,12 +7729,12 @@
       <c r="BX49" s="67"/>
     </row>
     <row r="50" spans="2:76" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="219"/>
-      <c r="C50" s="219"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="204"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="243"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="213"/>
       <c r="H50" s="43" t="s">
         <v>119</v>
       </c>
@@ -7751,7 +7752,7 @@
       </c>
       <c r="M50" s="47"/>
       <c r="N50" s="48"/>
-      <c r="O50" s="196"/>
+      <c r="O50" s="197"/>
       <c r="P50" s="66"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
@@ -7815,14 +7816,14 @@
       <c r="BX50" s="67"/>
     </row>
     <row r="51" spans="2:76" s="16" customFormat="1" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="208"/>
+      <c r="B51" s="247"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="212"/>
       <c r="F51" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="204"/>
+      <c r="G51" s="213"/>
       <c r="H51" s="88" t="s">
         <v>122</v>
       </c>
@@ -7842,7 +7843,7 @@
       <c r="N51" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="O51" s="197"/>
+      <c r="O51" s="198"/>
       <c r="P51" s="66"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
@@ -8210,18 +8211,18 @@
       </c>
     </row>
     <row r="54" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="192" t="s">
+      <c r="B54" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="192" t="s">
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="210"/>
+      <c r="G54" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="193"/>
-      <c r="I54" s="194"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="210"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="12"/>
@@ -8413,20 +8414,20 @@
       </c>
     </row>
     <row r="55" spans="2:76" s="16" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="205">
+      <c r="B55" s="236">
         <v>45082</v>
       </c>
-      <c r="C55" s="205"/>
-      <c r="D55" s="212" t="s">
+      <c r="C55" s="236"/>
+      <c r="D55" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="208" t="s">
+      <c r="E55" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="204" t="s">
+      <c r="G55" s="213" t="s">
         <v>88</v>
       </c>
       <c r="H55" s="88" t="s">
@@ -8438,7 +8439,7 @@
       <c r="L55" s="185"/>
       <c r="M55" s="81"/>
       <c r="N55" s="83"/>
-      <c r="O55" s="195">
+      <c r="O55" s="196">
         <v>34000</v>
       </c>
       <c r="P55" s="66"/>
@@ -8504,14 +8505,14 @@
       <c r="BX55" s="67"/>
     </row>
     <row r="56" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="206"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="208"/>
+      <c r="B56" s="237"/>
+      <c r="C56" s="237"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="212"/>
       <c r="F56" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="204"/>
+      <c r="G56" s="213"/>
       <c r="H56" s="88" t="s">
         <v>127</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="83"/>
-      <c r="O56" s="196"/>
+      <c r="O56" s="197"/>
       <c r="P56" s="66"/>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
@@ -8595,14 +8596,14 @@
       <c r="BX56" s="67"/>
     </row>
     <row r="57" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="206"/>
-      <c r="C57" s="206"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="208"/>
-      <c r="F57" s="203" t="s">
+      <c r="B57" s="237"/>
+      <c r="C57" s="237"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="212"/>
+      <c r="F57" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="204"/>
+      <c r="G57" s="213"/>
       <c r="H57" s="26" t="s">
         <v>129</v>
       </c>
@@ -8620,7 +8621,7 @@
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="83"/>
-      <c r="O57" s="196"/>
+      <c r="O57" s="197"/>
       <c r="P57" s="66"/>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
@@ -8684,12 +8685,12 @@
       <c r="BX57" s="67"/>
     </row>
     <row r="58" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="206"/>
-      <c r="C58" s="206"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="204"/>
+      <c r="B58" s="237"/>
+      <c r="C58" s="237"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="213"/>
       <c r="H58" s="26" t="s">
         <v>130</v>
       </c>
@@ -8707,7 +8708,7 @@
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="83"/>
-      <c r="O58" s="196"/>
+      <c r="O58" s="197"/>
       <c r="P58" s="66"/>
       <c r="Q58" s="66"/>
       <c r="R58" s="66"/>
@@ -8771,14 +8772,14 @@
       <c r="BX58" s="67"/>
     </row>
     <row r="59" spans="2:76" s="16" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="206"/>
-      <c r="C59" s="206"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="208"/>
+      <c r="B59" s="237"/>
+      <c r="C59" s="237"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="212"/>
       <c r="F59" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="204"/>
+      <c r="G59" s="213"/>
       <c r="H59" s="88" t="s">
         <v>132</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>0.6</v>
       </c>
       <c r="N59" s="83"/>
-      <c r="O59" s="196"/>
+      <c r="O59" s="197"/>
       <c r="P59" s="66"/>
       <c r="Q59" s="66"/>
       <c r="R59" s="66"/>
@@ -8862,32 +8863,32 @@
       <c r="BX59" s="67"/>
     </row>
     <row r="60" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="206"/>
-      <c r="C60" s="206"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="208"/>
-      <c r="F60" s="203" t="s">
+      <c r="B60" s="237"/>
+      <c r="C60" s="237"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="212"/>
+      <c r="F60" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="204"/>
+      <c r="G60" s="213"/>
       <c r="H60" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="240" t="s">
+      <c r="I60" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="198">
+      <c r="J60" s="250">
         <v>44027</v>
       </c>
-      <c r="K60" s="198">
+      <c r="K60" s="250">
         <v>44033</v>
       </c>
-      <c r="L60" s="201" t="s">
+      <c r="L60" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="M60" s="202"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="196"/>
+      <c r="M60" s="254"/>
+      <c r="N60" s="216"/>
+      <c r="O60" s="197"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="66"/>
       <c r="R60" s="66"/>
@@ -8951,22 +8952,22 @@
       <c r="BX60" s="67"/>
     </row>
     <row r="61" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="206"/>
-      <c r="C61" s="206"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="204"/>
+      <c r="B61" s="237"/>
+      <c r="C61" s="237"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="212"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="213"/>
       <c r="H61" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="240"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="202"/>
-      <c r="N61" s="203"/>
-      <c r="O61" s="196"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="251"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="254"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="197"/>
       <c r="P61" s="66"/>
       <c r="Q61" s="66"/>
       <c r="R61" s="66"/>
@@ -9030,22 +9031,22 @@
       <c r="BX61" s="67"/>
     </row>
     <row r="62" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="206"/>
-      <c r="C62" s="206"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="204"/>
+      <c r="B62" s="237"/>
+      <c r="C62" s="237"/>
+      <c r="D62" s="243"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="213"/>
       <c r="H62" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="I62" s="240"/>
-      <c r="J62" s="199"/>
-      <c r="K62" s="199"/>
-      <c r="L62" s="201"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="203"/>
-      <c r="O62" s="196"/>
+      <c r="I62" s="217"/>
+      <c r="J62" s="251"/>
+      <c r="K62" s="251"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="254"/>
+      <c r="N62" s="216"/>
+      <c r="O62" s="197"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="66"/>
       <c r="R62" s="66"/>
@@ -9109,22 +9110,22 @@
       <c r="BX62" s="67"/>
     </row>
     <row r="63" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="206"/>
-      <c r="C63" s="206"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="204"/>
+      <c r="B63" s="237"/>
+      <c r="C63" s="237"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="212"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="213"/>
       <c r="H63" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="240"/>
-      <c r="J63" s="199"/>
-      <c r="K63" s="199"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="203"/>
-      <c r="O63" s="196"/>
+      <c r="I63" s="217"/>
+      <c r="J63" s="251"/>
+      <c r="K63" s="251"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="254"/>
+      <c r="N63" s="216"/>
+      <c r="O63" s="197"/>
       <c r="P63" s="66"/>
       <c r="Q63" s="66"/>
       <c r="R63" s="66"/>
@@ -9188,22 +9189,22 @@
       <c r="BX63" s="67"/>
     </row>
     <row r="64" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="206"/>
-      <c r="C64" s="206"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="204"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="237"/>
+      <c r="D64" s="243"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="213"/>
       <c r="H64" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="240"/>
-      <c r="J64" s="200"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="201"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="203"/>
-      <c r="O64" s="196"/>
+      <c r="I64" s="217"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="253"/>
+      <c r="M64" s="254"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="197"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="66"/>
       <c r="R64" s="66"/>
@@ -9267,12 +9268,12 @@
       <c r="BX64" s="67"/>
     </row>
     <row r="65" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="206"/>
-      <c r="C65" s="206"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="208"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="204"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="243"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="213"/>
       <c r="H65" s="88" t="s">
         <v>141</v>
       </c>
@@ -9290,7 +9291,7 @@
       </c>
       <c r="M65" s="84"/>
       <c r="N65" s="81"/>
-      <c r="O65" s="196"/>
+      <c r="O65" s="197"/>
       <c r="P65" s="66"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
@@ -9354,12 +9355,12 @@
       <c r="BX65" s="67"/>
     </row>
     <row r="66" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="206"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="208"/>
-      <c r="F66" s="203"/>
-      <c r="G66" s="204"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="243"/>
+      <c r="E66" s="212"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="213"/>
       <c r="H66" s="88" t="s">
         <v>142</v>
       </c>
@@ -9377,7 +9378,7 @@
       </c>
       <c r="M66" s="84"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="196"/>
+      <c r="O66" s="197"/>
       <c r="P66" s="66"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
@@ -9441,12 +9442,12 @@
       <c r="BX66" s="67"/>
     </row>
     <row r="67" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="206"/>
-      <c r="C67" s="206"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="208"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="204"/>
+      <c r="B67" s="237"/>
+      <c r="C67" s="237"/>
+      <c r="D67" s="243"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="213"/>
       <c r="H67" s="88" t="s">
         <v>143</v>
       </c>
@@ -9464,7 +9465,7 @@
       </c>
       <c r="M67" s="84"/>
       <c r="N67" s="80"/>
-      <c r="O67" s="196"/>
+      <c r="O67" s="197"/>
       <c r="P67" s="66"/>
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
@@ -9528,12 +9529,12 @@
       <c r="BX67" s="67"/>
     </row>
     <row r="68" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="206"/>
-      <c r="C68" s="206"/>
-      <c r="D68" s="213"/>
-      <c r="E68" s="208"/>
-      <c r="F68" s="203"/>
-      <c r="G68" s="204"/>
+      <c r="B68" s="237"/>
+      <c r="C68" s="237"/>
+      <c r="D68" s="243"/>
+      <c r="E68" s="212"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="213"/>
       <c r="H68" s="88" t="s">
         <v>144</v>
       </c>
@@ -9551,7 +9552,7 @@
       </c>
       <c r="M68" s="84"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="196"/>
+      <c r="O68" s="197"/>
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="66"/>
@@ -9615,12 +9616,12 @@
       <c r="BX68" s="67"/>
     </row>
     <row r="69" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="206"/>
-      <c r="C69" s="206"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="208"/>
+      <c r="B69" s="237"/>
+      <c r="C69" s="237"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="83"/>
-      <c r="G69" s="204"/>
+      <c r="G69" s="213"/>
       <c r="H69" s="88" t="s">
         <v>145</v>
       </c>
@@ -9640,7 +9641,7 @@
       <c r="N69" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O69" s="196"/>
+      <c r="O69" s="197"/>
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="66"/>
@@ -9704,14 +9705,14 @@
       <c r="BX69" s="67"/>
     </row>
     <row r="70" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="206"/>
-      <c r="C70" s="206"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="208"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="237"/>
+      <c r="D70" s="243"/>
+      <c r="E70" s="212"/>
       <c r="F70" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="204"/>
+      <c r="G70" s="213"/>
       <c r="H70" s="88" t="s">
         <v>148</v>
       </c>
@@ -9729,7 +9730,7 @@
       </c>
       <c r="M70" s="84"/>
       <c r="N70" s="83"/>
-      <c r="O70" s="196"/>
+      <c r="O70" s="197"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="66"/>
       <c r="R70" s="66"/>
@@ -9793,14 +9794,14 @@
       <c r="BX70" s="67"/>
     </row>
     <row r="71" spans="2:76" s="16" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="206"/>
-      <c r="C71" s="206"/>
-      <c r="D71" s="213"/>
-      <c r="E71" s="208"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="237"/>
+      <c r="D71" s="243"/>
+      <c r="E71" s="212"/>
       <c r="F71" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="204"/>
+      <c r="G71" s="213"/>
       <c r="H71" s="88"/>
       <c r="I71" s="82"/>
       <c r="J71" s="89"/>
@@ -9808,7 +9809,7 @@
       <c r="L71" s="83"/>
       <c r="M71" s="84"/>
       <c r="N71" s="83"/>
-      <c r="O71" s="196"/>
+      <c r="O71" s="197"/>
       <c r="P71" s="66"/>
       <c r="Q71" s="66"/>
       <c r="R71" s="66"/>
@@ -9872,24 +9873,24 @@
       <c r="BX71" s="67"/>
     </row>
     <row r="72" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="206"/>
-      <c r="C72" s="206"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="208"/>
+      <c r="B72" s="237"/>
+      <c r="C72" s="237"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="212"/>
       <c r="F72" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="204"/>
+      <c r="G72" s="213"/>
       <c r="H72" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="241" t="s">
+      <c r="I72" s="211" t="s">
         <v>153</v>
       </c>
-      <c r="J72" s="190">
+      <c r="J72" s="214">
         <v>44034</v>
       </c>
-      <c r="K72" s="190">
+      <c r="K72" s="214">
         <v>44036</v>
       </c>
       <c r="L72" s="83" t="s">
@@ -9897,7 +9898,7 @@
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="83"/>
-      <c r="O72" s="196"/>
+      <c r="O72" s="197"/>
       <c r="P72" s="66"/>
       <c r="Q72" s="66"/>
       <c r="R72" s="66"/>
@@ -9961,26 +9962,26 @@
       <c r="BX72" s="67"/>
     </row>
     <row r="73" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="207"/>
-      <c r="C73" s="207"/>
-      <c r="D73" s="214"/>
-      <c r="E73" s="208"/>
+      <c r="B73" s="238"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="244"/>
+      <c r="E73" s="212"/>
       <c r="F73" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="204"/>
+      <c r="G73" s="213"/>
       <c r="H73" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="241"/>
-      <c r="J73" s="191"/>
-      <c r="K73" s="191"/>
+      <c r="I73" s="211"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
       <c r="L73" s="83" t="s">
         <v>156</v>
       </c>
       <c r="M73" s="84"/>
       <c r="N73" s="83"/>
-      <c r="O73" s="197"/>
+      <c r="O73" s="198"/>
       <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
@@ -10359,11 +10360,11 @@
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="192" t="s">
+      <c r="G76" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="193"/>
-      <c r="I76" s="194"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="210"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -10555,20 +10556,20 @@
       </c>
     </row>
     <row r="77" spans="2:76" s="16" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="205">
+      <c r="B77" s="236">
         <v>45082</v>
       </c>
-      <c r="C77" s="205"/>
-      <c r="D77" s="212" t="s">
+      <c r="C77" s="236"/>
+      <c r="D77" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="208" t="s">
+      <c r="E77" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G77" s="204" t="s">
+      <c r="G77" s="213" t="s">
         <v>158</v>
       </c>
       <c r="H77" s="88" t="s">
@@ -10588,7 +10589,7 @@
       </c>
       <c r="M77" s="84"/>
       <c r="N77" s="83"/>
-      <c r="O77" s="195">
+      <c r="O77" s="196">
         <v>17000</v>
       </c>
       <c r="P77" s="69"/>
@@ -10654,14 +10655,14 @@
       <c r="BX77" s="68"/>
     </row>
     <row r="78" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="206"/>
-      <c r="C78" s="206"/>
-      <c r="D78" s="213"/>
-      <c r="E78" s="208"/>
+      <c r="B78" s="237"/>
+      <c r="C78" s="237"/>
+      <c r="D78" s="243"/>
+      <c r="E78" s="212"/>
       <c r="F78" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="204"/>
+      <c r="G78" s="213"/>
       <c r="H78" s="88" t="s">
         <v>161</v>
       </c>
@@ -10679,7 +10680,7 @@
       </c>
       <c r="M78" s="84"/>
       <c r="N78" s="83"/>
-      <c r="O78" s="196"/>
+      <c r="O78" s="197"/>
       <c r="P78" s="69"/>
       <c r="Q78" s="68"/>
       <c r="R78" s="68"/>
@@ -10743,14 +10744,14 @@
       <c r="BX78" s="68"/>
     </row>
     <row r="79" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="206"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="213"/>
-      <c r="E79" s="208"/>
-      <c r="F79" s="203" t="s">
+      <c r="B79" s="237"/>
+      <c r="C79" s="237"/>
+      <c r="D79" s="243"/>
+      <c r="E79" s="212"/>
+      <c r="F79" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="G79" s="204"/>
+      <c r="G79" s="213"/>
       <c r="H79" s="88" t="s">
         <v>163</v>
       </c>
@@ -10768,7 +10769,7 @@
       </c>
       <c r="M79" s="84"/>
       <c r="N79" s="83"/>
-      <c r="O79" s="196"/>
+      <c r="O79" s="197"/>
       <c r="P79" s="69"/>
       <c r="Q79" s="68"/>
       <c r="R79" s="68"/>
@@ -10832,12 +10833,12 @@
       <c r="BX79" s="68"/>
     </row>
     <row r="80" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="206"/>
-      <c r="C80" s="206"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="208"/>
-      <c r="F80" s="203"/>
-      <c r="G80" s="204"/>
+      <c r="B80" s="237"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="243"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="213"/>
       <c r="H80" s="88" t="s">
         <v>165</v>
       </c>
@@ -10859,7 +10860,7 @@
       <c r="N80" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="O80" s="196"/>
+      <c r="O80" s="197"/>
       <c r="P80" s="68"/>
       <c r="Q80" s="68"/>
       <c r="R80" s="68"/>
@@ -10923,14 +10924,14 @@
       <c r="BX80" s="68"/>
     </row>
     <row r="81" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="206"/>
-      <c r="C81" s="206"/>
-      <c r="D81" s="213"/>
-      <c r="E81" s="208"/>
+      <c r="B81" s="237"/>
+      <c r="C81" s="237"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="212"/>
       <c r="F81" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="204"/>
+      <c r="G81" s="213"/>
       <c r="H81" s="88" t="s">
         <v>168</v>
       </c>
@@ -10948,7 +10949,7 @@
       </c>
       <c r="M81" s="84"/>
       <c r="N81" s="83"/>
-      <c r="O81" s="196"/>
+      <c r="O81" s="197"/>
       <c r="P81" s="68"/>
       <c r="Q81" s="68"/>
       <c r="R81" s="68"/>
@@ -11012,14 +11013,14 @@
       <c r="BX81" s="68"/>
     </row>
     <row r="82" spans="2:76" s="16" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="206"/>
-      <c r="C82" s="206"/>
-      <c r="D82" s="213"/>
-      <c r="E82" s="208"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="243"/>
+      <c r="E82" s="212"/>
       <c r="F82" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="G82" s="204"/>
+      <c r="G82" s="213"/>
       <c r="H82" s="88" t="s">
         <v>170</v>
       </c>
@@ -11037,7 +11038,7 @@
       </c>
       <c r="M82" s="84"/>
       <c r="N82" s="83"/>
-      <c r="O82" s="196"/>
+      <c r="O82" s="197"/>
       <c r="P82" s="68"/>
       <c r="Q82" s="68"/>
       <c r="R82" s="68"/>
@@ -11101,14 +11102,14 @@
       <c r="BX82" s="68"/>
     </row>
     <row r="83" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="206"/>
-      <c r="C83" s="206"/>
-      <c r="D83" s="213"/>
-      <c r="E83" s="208"/>
+      <c r="B83" s="237"/>
+      <c r="C83" s="237"/>
+      <c r="D83" s="243"/>
+      <c r="E83" s="212"/>
       <c r="F83" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="G83" s="204"/>
+      <c r="G83" s="213"/>
       <c r="H83" s="88" t="s">
         <v>172</v>
       </c>
@@ -11126,7 +11127,7 @@
       </c>
       <c r="M83" s="84"/>
       <c r="N83" s="83"/>
-      <c r="O83" s="196"/>
+      <c r="O83" s="197"/>
       <c r="P83" s="68"/>
       <c r="Q83" s="68"/>
       <c r="R83" s="68"/>
@@ -11190,14 +11191,14 @@
       <c r="BX83" s="68"/>
     </row>
     <row r="84" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="206"/>
-      <c r="C84" s="206"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="208"/>
+      <c r="B84" s="237"/>
+      <c r="C84" s="237"/>
+      <c r="D84" s="243"/>
+      <c r="E84" s="212"/>
       <c r="F84" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="G84" s="204"/>
+      <c r="G84" s="213"/>
       <c r="H84" s="88" t="s">
         <v>175</v>
       </c>
@@ -11215,7 +11216,7 @@
       </c>
       <c r="M84" s="84"/>
       <c r="N84" s="83"/>
-      <c r="O84" s="196"/>
+      <c r="O84" s="197"/>
       <c r="P84" s="68"/>
       <c r="Q84" s="68"/>
       <c r="R84" s="68"/>
@@ -11279,14 +11280,14 @@
       <c r="BX84" s="68"/>
     </row>
     <row r="85" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="207"/>
-      <c r="C85" s="207"/>
-      <c r="D85" s="214"/>
-      <c r="E85" s="208"/>
+      <c r="B85" s="238"/>
+      <c r="C85" s="238"/>
+      <c r="D85" s="244"/>
+      <c r="E85" s="212"/>
       <c r="F85" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="G85" s="204"/>
+      <c r="G85" s="213"/>
       <c r="H85" s="88" t="s">
         <v>176</v>
       </c>
@@ -11302,7 +11303,7 @@
       <c r="L85" s="83"/>
       <c r="M85" s="84"/>
       <c r="N85" s="83"/>
-      <c r="O85" s="197"/>
+      <c r="O85" s="198"/>
       <c r="P85" s="68"/>
       <c r="Q85" s="68"/>
       <c r="R85" s="68"/>
@@ -11377,10 +11378,10 @@
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="53"/>
-      <c r="G86" s="188" t="s">
+      <c r="G86" s="248" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="189"/>
+      <c r="H86" s="249"/>
       <c r="I86" s="53"/>
       <c r="J86" s="96"/>
       <c r="K86" s="62">
@@ -11468,39 +11469,33 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="P2:AX2"/>
-    <mergeCell ref="AY2:BX2"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AY5:BC5"/>
-    <mergeCell ref="BT5:BX5"/>
-    <mergeCell ref="BM5:BQ5"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O33:O51"/>
-    <mergeCell ref="BF5:BJ5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="G8:G29"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="E33:E51"/>
-    <mergeCell ref="G33:G51"/>
-    <mergeCell ref="F40:F50"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="G55:G73"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="O55:O73"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="M60:M64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="O77:O85"/>
+    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B55:B73"/>
+    <mergeCell ref="E55:E73"/>
+    <mergeCell ref="D6:D29"/>
+    <mergeCell ref="D33:D51"/>
+    <mergeCell ref="D55:D73"/>
+    <mergeCell ref="D77:D85"/>
+    <mergeCell ref="C6:C29"/>
+    <mergeCell ref="C33:C51"/>
+    <mergeCell ref="C55:C73"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="E77:E85"/>
+    <mergeCell ref="B33:B51"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -11517,33 +11512,39 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B55:B73"/>
-    <mergeCell ref="E55:E73"/>
-    <mergeCell ref="D6:D29"/>
-    <mergeCell ref="D33:D51"/>
-    <mergeCell ref="D55:D73"/>
-    <mergeCell ref="D77:D85"/>
-    <mergeCell ref="C6:C29"/>
-    <mergeCell ref="C33:C51"/>
-    <mergeCell ref="C55:C73"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="E77:E85"/>
-    <mergeCell ref="B33:B51"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="O55:O73"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="M60:M64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="O77:O85"/>
-    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="E33:E51"/>
+    <mergeCell ref="G33:G51"/>
+    <mergeCell ref="F40:F50"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="G55:G73"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G8:G29"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O33:O51"/>
+    <mergeCell ref="BF5:BJ5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="P2:AX2"/>
+    <mergeCell ref="AY2:BX2"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AY5:BC5"/>
+    <mergeCell ref="BT5:BX5"/>
+    <mergeCell ref="BM5:BQ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11558,7 +11559,7 @@
   <dimension ref="A2:AW18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="E5" sqref="E5:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11798,13 +11799,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="261" t="s">
@@ -11933,9 +11934,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -11962,11 +11963,11 @@
       <c r="S6" s="104"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -11994,9 +11995,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="135" t="s">
         <v>207</v>
@@ -12065,9 +12066,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="135" t="s">
         <v>208</v>
@@ -12130,9 +12131,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -12191,9 +12192,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -12250,9 +12251,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="262"/>
       <c r="G11" s="135" t="s">
         <v>189</v>
@@ -12317,9 +12318,9 @@
     <row r="12" spans="1:49" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="262"/>
       <c r="G12" s="135" t="s">
         <v>210</v>
@@ -12388,9 +12389,9 @@
     <row r="13" spans="1:49" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="262"/>
       <c r="G13" s="135" t="s">
         <v>191</v>
@@ -12459,9 +12460,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="262"/>
       <c r="G14" s="111" t="s">
         <v>216</v>
@@ -12530,9 +12531,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
       <c r="F15" s="262"/>
       <c r="G15" s="135" t="s">
         <v>212</v>
@@ -12597,9 +12598,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="216"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="222"/>
       <c r="F16" s="262"/>
       <c r="G16" s="135" t="s">
         <v>213</v>
@@ -12660,9 +12661,9 @@
     <row r="17" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="260"/>
       <c r="B17" s="260"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="217"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="223"/>
       <c r="F17" s="262"/>
       <c r="G17" s="135" t="s">
         <v>214</v>
@@ -13052,16 +13053,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>200</v>
       </c>
       <c r="G5" s="159"/>
@@ -13187,10 +13188,10 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="277"/>
-      <c r="F6" s="242"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>201</v>
       </c>
@@ -13207,18 +13208,18 @@
       <c r="N6" s="264">
         <v>5000</v>
       </c>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -13246,10 +13247,10 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="277"/>
-      <c r="F7" s="242"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="148" t="s">
         <v>192</v>
       </c>
@@ -13317,10 +13318,10 @@
     <row r="8" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="277"/>
-      <c r="F8" s="242"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="111" t="s">
         <v>204</v>
       </c>
@@ -13377,10 +13378,10 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="242"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="12" t="s">
         <v>190</v>
       </c>
@@ -13436,10 +13437,10 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="277"/>
-      <c r="F10" s="242"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="156" t="s">
         <v>221</v>
       </c>
@@ -13489,10 +13490,10 @@
     <row r="11" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="277"/>
-      <c r="F11" s="242"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="148" t="s">
         <v>227</v>
       </c>
@@ -13560,10 +13561,10 @@
     <row r="12" spans="1:49" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="277"/>
-      <c r="F12" s="242"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>229</v>
       </c>
@@ -13613,10 +13614,10 @@
     <row r="13" spans="1:49" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="277"/>
-      <c r="F13" s="242"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="148" t="s">
         <v>228</v>
       </c>
@@ -13680,10 +13681,10 @@
     <row r="14" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="277"/>
-      <c r="F14" s="242"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="148" t="s">
         <v>230</v>
       </c>
@@ -13747,10 +13748,10 @@
     <row r="15" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="277"/>
-      <c r="F15" s="242"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="148" t="s">
         <v>233</v>
       </c>
@@ -13816,10 +13817,10 @@
     <row r="16" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="277"/>
-      <c r="F16" s="242"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="148" t="s">
         <v>231</v>
       </c>
@@ -13879,10 +13880,10 @@
     <row r="17" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="277"/>
-      <c r="F17" s="242"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="148" t="s">
         <v>232</v>
       </c>
@@ -13932,10 +13933,10 @@
     <row r="18" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="277"/>
-      <c r="F18" s="242"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="148" t="s">
         <v>234</v>
       </c>
@@ -13985,10 +13986,10 @@
     <row r="19" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="242"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="148" t="s">
         <v>235</v>
       </c>
@@ -14038,10 +14039,10 @@
     <row r="20" spans="1:49" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="259"/>
       <c r="B20" s="259"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="277"/>
-      <c r="F20" s="242"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="148" t="s">
         <v>222</v>
       </c>
@@ -14101,10 +14102,10 @@
     <row r="21" spans="1:49" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="259"/>
       <c r="B21" s="259"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="277"/>
-      <c r="F21" s="242"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="156" t="s">
         <v>223</v>
       </c>
@@ -14163,10 +14164,10 @@
     <row r="22" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="259"/>
       <c r="B22" s="259"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="277"/>
-      <c r="F22" s="242"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="156" t="s">
         <v>224</v>
       </c>
@@ -14228,10 +14229,10 @@
     <row r="23" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="259"/>
       <c r="B23" s="259"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="277"/>
-      <c r="F23" s="242"/>
+      <c r="F23" s="206"/>
       <c r="G23" s="156" t="s">
         <v>225</v>
       </c>
@@ -14291,10 +14292,10 @@
     <row r="24" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="260"/>
       <c r="B24" s="260"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
       <c r="E24" s="277"/>
-      <c r="F24" s="242"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="156" t="s">
         <v>226</v>
       </c>
@@ -14679,13 +14680,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="279" t="s">
@@ -14814,9 +14815,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -14875,9 +14876,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="148" t="s">
         <v>239</v>
@@ -14946,9 +14947,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="148" t="s">
         <v>240</v>
@@ -15011,9 +15012,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -15072,9 +15073,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -15131,9 +15132,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="262"/>
       <c r="G11" s="148" t="s">
         <v>189</v>
@@ -15198,9 +15199,9 @@
     <row r="12" spans="1:49" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="262"/>
       <c r="G12" s="148" t="s">
         <v>245</v>
@@ -15267,9 +15268,9 @@
     <row r="13" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="280"/>
       <c r="G13" s="148" t="s">
         <v>191</v>
@@ -15334,9 +15335,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="280"/>
       <c r="G14" s="148" t="s">
         <v>241</v>
@@ -15403,9 +15404,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
       <c r="F15" s="280"/>
       <c r="G15" s="148" t="s">
         <v>242</v>
@@ -15465,9 +15466,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="260"/>
       <c r="B16" s="260"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="217"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="223"/>
       <c r="F16" s="280"/>
       <c r="G16" s="148" t="s">
         <v>243</v>
@@ -15611,7 +15612,7 @@
   </sheetPr>
   <dimension ref="A2:BW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -15956,16 +15957,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>280</v>
       </c>
       <c r="G5" s="159"/>
@@ -16169,10 +16170,10 @@
     <row r="6" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -16254,10 +16255,10 @@
     <row r="7" spans="1:75" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="156" t="s">
         <v>221</v>
       </c>
@@ -16347,10 +16348,10 @@
     <row r="8" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="156" t="s">
         <v>264</v>
       </c>
@@ -16428,10 +16429,10 @@
     <row r="9" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="111" t="s">
         <v>269</v>
       </c>
@@ -16523,10 +16524,10 @@
     <row r="10" spans="1:75" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="111" t="s">
         <v>274</v>
       </c>
@@ -16634,10 +16635,10 @@
     <row r="11" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="242"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="111" t="s">
         <v>270</v>
       </c>
@@ -16733,10 +16734,10 @@
     <row r="12" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="242"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>271</v>
       </c>
@@ -16828,10 +16829,10 @@
     <row r="13" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="156" t="s">
         <v>265</v>
       </c>
@@ -16919,10 +16920,10 @@
     <row r="14" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="242"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="156" t="s">
         <v>267</v>
       </c>
@@ -17008,10 +17009,10 @@
     <row r="15" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="242"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="156" t="s">
         <v>268</v>
       </c>
@@ -17229,7 +17230,7 @@
   </sheetPr>
   <dimension ref="A2:BI20"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -17517,16 +17518,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>247</v>
       </c>
       <c r="G5" s="159"/>
@@ -17688,10 +17689,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="225"/>
-      <c r="F6" s="242"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -17759,10 +17760,10 @@
     <row r="7" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="225"/>
-      <c r="F7" s="242"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="148" t="s">
         <v>248</v>
       </c>
@@ -17838,10 +17839,10 @@
     <row r="8" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="225"/>
-      <c r="F8" s="242"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="148" t="s">
         <v>249</v>
       </c>
@@ -17917,10 +17918,10 @@
     <row r="9" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="225"/>
-      <c r="F9" s="242"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="148" t="s">
         <v>250</v>
       </c>
@@ -17986,10 +17987,10 @@
     <row r="10" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="225"/>
-      <c r="F10" s="242"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="148" t="s">
         <v>251</v>
       </c>
@@ -18055,10 +18056,10 @@
     <row r="11" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="225"/>
-      <c r="F11" s="242"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="148" t="s">
         <v>252</v>
       </c>
@@ -18132,10 +18133,10 @@
     <row r="12" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="225"/>
-      <c r="F12" s="242"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>253</v>
       </c>
@@ -18211,10 +18212,10 @@
     <row r="13" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="225"/>
-      <c r="F13" s="242"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="148" t="s">
         <v>254</v>
       </c>
@@ -18290,10 +18291,10 @@
     <row r="14" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="225"/>
-      <c r="F14" s="242"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="148" t="s">
         <v>255</v>
       </c>
@@ -18361,10 +18362,10 @@
     <row r="15" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="225"/>
-      <c r="F15" s="242"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="148" t="s">
         <v>256</v>
       </c>
@@ -18446,10 +18447,10 @@
     <row r="16" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="225"/>
-      <c r="F16" s="242"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="148" t="s">
         <v>257</v>
       </c>
@@ -18515,10 +18516,10 @@
     <row r="17" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="225"/>
-      <c r="F17" s="242"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="148" t="s">
         <v>258</v>
       </c>
@@ -18598,10 +18599,10 @@
     <row r="18" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="225"/>
-      <c r="F18" s="242"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="148" t="s">
         <v>259</v>
       </c>
@@ -18679,10 +18680,10 @@
     <row r="19" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="225"/>
-      <c r="F19" s="242"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="156" t="s">
         <v>132</v>
       </c>
@@ -18834,11 +18835,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:AU3"/>
-    <mergeCell ref="AV3:BI3"/>
     <mergeCell ref="N6:N20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A5:A19"/>
@@ -18847,6 +18843,11 @@
     <mergeCell ref="D5:D19"/>
     <mergeCell ref="E5:E19"/>
     <mergeCell ref="F5:F19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:AU3"/>
+    <mergeCell ref="AV3:BI3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
@@ -19122,13 +19123,13 @@
         <v>45082</v>
       </c>
       <c r="B4" s="258"/>
-      <c r="C4" s="209" t="s">
+      <c r="C4" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="279" t="s">
@@ -19272,9 +19273,9 @@
     <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
       <c r="B5" s="259"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="216"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="222"/>
       <c r="F5" s="280"/>
       <c r="G5" s="112" t="s">
         <v>190</v>
@@ -19336,9 +19337,9 @@
     <row r="6" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="263"/>
       <c r="G6" s="156" t="s">
         <v>221</v>
@@ -19408,9 +19409,9 @@
     <row r="7" spans="1:54" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="156" t="s">
         <v>287</v>
@@ -19480,9 +19481,9 @@
     <row r="8" spans="1:54" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="156" t="s">
         <v>288</v>
@@ -19552,9 +19553,9 @@
     <row r="9" spans="1:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="263"/>
       <c r="G9" s="156" t="s">
         <v>289</v>
@@ -19610,9 +19611,9 @@
     <row r="10" spans="1:54" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="280"/>
       <c r="G10" s="161" t="s">
         <v>292</v>
@@ -19690,9 +19691,9 @@
     <row r="11" spans="1:54" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="280"/>
       <c r="G11" s="156" t="s">
         <v>290</v>
@@ -19762,9 +19763,9 @@
     <row r="12" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="280"/>
       <c r="G12" s="156" t="s">
         <v>291</v>
@@ -19925,8 +19926,8 @@
   </sheetPr>
   <dimension ref="A2:BW30"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20214,16 +20215,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>294</v>
       </c>
       <c r="G5" s="159"/>
@@ -20385,10 +20386,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -20454,10 +20455,10 @@
     <row r="7" spans="1:61" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="156" t="s">
         <v>295</v>
       </c>
@@ -20533,10 +20534,10 @@
     <row r="8" spans="1:61" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="156" t="s">
         <v>299</v>
       </c>
@@ -20612,10 +20613,10 @@
     <row r="9" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="178" t="s">
         <v>300</v>
       </c>
@@ -20689,10 +20690,10 @@
     <row r="10" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="178" t="s">
         <v>296</v>
       </c>
@@ -20754,10 +20755,10 @@
     <row r="11" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="242"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="182" t="s">
         <v>301</v>
       </c>
@@ -20831,10 +20832,10 @@
     <row r="12" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="242"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="182" t="s">
         <v>302</v>
       </c>
@@ -20908,10 +20909,10 @@
     <row r="13" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="182" t="s">
         <v>307</v>
       </c>
@@ -20985,10 +20986,10 @@
     <row r="14" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="242"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="182" t="s">
         <v>303</v>
       </c>
@@ -21062,10 +21063,10 @@
     <row r="15" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="242"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="182" t="s">
         <v>306</v>
       </c>
@@ -21135,10 +21136,10 @@
     <row r="16" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="242"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="178" t="s">
         <v>297</v>
       </c>
@@ -21212,10 +21213,10 @@
     <row r="17" spans="1:75" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="242"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="156" t="s">
         <v>311</v>
       </c>
@@ -21684,16 +21685,16 @@
         <v>45082</v>
       </c>
       <c r="B25" s="258"/>
-      <c r="C25" s="209" t="s">
+      <c r="C25" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="209" t="s">
+      <c r="D25" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="215" t="s">
+      <c r="E25" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="242" t="s">
+      <c r="F25" s="206" t="s">
         <v>305</v>
       </c>
       <c r="G25" s="175"/>
@@ -21891,10 +21892,10 @@
     <row r="26" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="259"/>
       <c r="B26" s="259"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="242"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="206"/>
       <c r="G26" s="12" t="s">
         <v>190</v>
       </c>
@@ -21970,10 +21971,10 @@
     <row r="27" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="259"/>
       <c r="B27" s="259"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="242"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="206"/>
       <c r="G27" s="182" t="s">
         <v>127</v>
       </c>
@@ -22059,10 +22060,10 @@
     <row r="28" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="259"/>
       <c r="B28" s="259"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="242"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="182" t="s">
         <v>159</v>
       </c>
@@ -22150,10 +22151,10 @@
     <row r="29" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="259"/>
       <c r="B29" s="259"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="242"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="182" t="s">
         <v>161</v>
       </c>
@@ -22317,17 +22318,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F5:F17"/>
-    <mergeCell ref="N6:N18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="F30:G30"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -22344,6 +22334,17 @@
     <mergeCell ref="C5:C17"/>
     <mergeCell ref="D5:D17"/>
     <mergeCell ref="E5:E17"/>
+    <mergeCell ref="F5:F17"/>
+    <mergeCell ref="N6:N18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>

--- a/2. Cronogramas_CS HUACCANA.xlsx
+++ b/2. Cronogramas_CS HUACCANA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B2582-A2AC-4A02-B118-9E813B9D2BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0978E5-5DEB-4952-AC83-44AC54472897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5655" windowWidth="13800" windowHeight="9495" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="6000" windowWidth="13800" windowHeight="9495" tabRatio="786" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma- Gral-HUACCANA" sheetId="3" r:id="rId1"/>
@@ -2316,6 +2316,198 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2323,198 +2515,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2937,7 +2937,7 @@
   </sheetPr>
   <dimension ref="B1:BX87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G29"/>
     </sheetView>
   </sheetViews>
@@ -2981,11 +2981,11 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="2:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="218"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="223"/>
       <c r="G2" s="228" t="s">
         <v>9</v>
       </c>
@@ -2997,69 +2997,69 @@
       <c r="M2" s="229"/>
       <c r="N2" s="229"/>
       <c r="O2" s="230"/>
-      <c r="P2" s="188" t="s">
+      <c r="P2" s="252" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="188"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="188"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="188"/>
-      <c r="AT2" s="188"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="189"/>
-      <c r="BH2" s="189"/>
-      <c r="BI2" s="189"/>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="189"/>
-      <c r="BM2" s="189"/>
-      <c r="BN2" s="189"/>
-      <c r="BO2" s="189"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="189"/>
-      <c r="BR2" s="189"/>
-      <c r="BS2" s="189"/>
-      <c r="BT2" s="189"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="189"/>
-      <c r="BW2" s="189"/>
-      <c r="BX2" s="189"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252"/>
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="252"/>
+      <c r="AD2" s="252"/>
+      <c r="AE2" s="252"/>
+      <c r="AF2" s="252"/>
+      <c r="AG2" s="252"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="252"/>
+      <c r="AJ2" s="252"/>
+      <c r="AK2" s="252"/>
+      <c r="AL2" s="252"/>
+      <c r="AM2" s="252"/>
+      <c r="AN2" s="252"/>
+      <c r="AO2" s="252"/>
+      <c r="AP2" s="252"/>
+      <c r="AQ2" s="252"/>
+      <c r="AR2" s="252"/>
+      <c r="AS2" s="252"/>
+      <c r="AT2" s="252"/>
+      <c r="AU2" s="252"/>
+      <c r="AV2" s="252"/>
+      <c r="AW2" s="252"/>
+      <c r="AX2" s="252"/>
+      <c r="AY2" s="253"/>
+      <c r="AZ2" s="253"/>
+      <c r="BA2" s="253"/>
+      <c r="BB2" s="253"/>
+      <c r="BC2" s="253"/>
+      <c r="BD2" s="253"/>
+      <c r="BE2" s="253"/>
+      <c r="BF2" s="253"/>
+      <c r="BG2" s="253"/>
+      <c r="BH2" s="253"/>
+      <c r="BI2" s="253"/>
+      <c r="BJ2" s="253"/>
+      <c r="BK2" s="253"/>
+      <c r="BL2" s="253"/>
+      <c r="BM2" s="253"/>
+      <c r="BN2" s="253"/>
+      <c r="BO2" s="253"/>
+      <c r="BP2" s="253"/>
+      <c r="BQ2" s="253"/>
+      <c r="BR2" s="253"/>
+      <c r="BS2" s="253"/>
+      <c r="BT2" s="253"/>
+      <c r="BU2" s="253"/>
+      <c r="BV2" s="253"/>
+      <c r="BW2" s="253"/>
+      <c r="BX2" s="253"/>
     </row>
     <row r="3" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="107" t="s">
@@ -3492,18 +3492,18 @@
       </c>
     </row>
     <row r="5" spans="2:76" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="208" t="s">
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="209"/>
-      <c r="I5" s="210"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="194"/>
       <c r="J5" s="11">
         <v>43808</v>
       </c>
@@ -3512,74 +3512,74 @@
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="201"/>
+      <c r="P5" s="248"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="250"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="190"/>
-      <c r="X5" s="190"/>
-      <c r="Y5" s="190"/>
-      <c r="Z5" s="190"/>
-      <c r="AA5" s="190"/>
+      <c r="W5" s="254"/>
+      <c r="X5" s="254"/>
+      <c r="Y5" s="254"/>
+      <c r="Z5" s="254"/>
+      <c r="AA5" s="254"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
+      <c r="AD5" s="254"/>
+      <c r="AE5" s="254"/>
+      <c r="AF5" s="254"/>
+      <c r="AG5" s="254"/>
+      <c r="AH5" s="254"/>
       <c r="AI5" s="75"/>
       <c r="AJ5" s="75"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
+      <c r="AK5" s="254"/>
+      <c r="AL5" s="254"/>
+      <c r="AM5" s="254"/>
+      <c r="AN5" s="254"/>
+      <c r="AO5" s="254"/>
       <c r="AP5" s="75"/>
       <c r="AQ5" s="75"/>
-      <c r="AR5" s="191"/>
-      <c r="AS5" s="191"/>
-      <c r="AT5" s="191"/>
-      <c r="AU5" s="191"/>
-      <c r="AV5" s="191"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
       <c r="AW5" s="75"/>
       <c r="AX5" s="75"/>
-      <c r="AY5" s="191"/>
-      <c r="AZ5" s="191"/>
-      <c r="BA5" s="191"/>
-      <c r="BB5" s="191"/>
-      <c r="BC5" s="191"/>
+      <c r="AY5" s="247"/>
+      <c r="AZ5" s="247"/>
+      <c r="BA5" s="247"/>
+      <c r="BB5" s="247"/>
+      <c r="BC5" s="247"/>
       <c r="BD5" s="75"/>
       <c r="BE5" s="75"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="191"/>
-      <c r="BH5" s="191"/>
-      <c r="BI5" s="191"/>
-      <c r="BJ5" s="191"/>
+      <c r="BF5" s="247"/>
+      <c r="BG5" s="247"/>
+      <c r="BH5" s="247"/>
+      <c r="BI5" s="247"/>
+      <c r="BJ5" s="247"/>
       <c r="BK5" s="75"/>
       <c r="BL5" s="75"/>
-      <c r="BM5" s="191"/>
-      <c r="BN5" s="191"/>
-      <c r="BO5" s="191"/>
-      <c r="BP5" s="191"/>
-      <c r="BQ5" s="191"/>
+      <c r="BM5" s="247"/>
+      <c r="BN5" s="247"/>
+      <c r="BO5" s="247"/>
+      <c r="BP5" s="247"/>
+      <c r="BQ5" s="247"/>
       <c r="BR5" s="75"/>
       <c r="BS5" s="75"/>
-      <c r="BT5" s="191"/>
-      <c r="BU5" s="191"/>
-      <c r="BV5" s="191"/>
-      <c r="BW5" s="191"/>
-      <c r="BX5" s="191"/>
+      <c r="BT5" s="247"/>
+      <c r="BU5" s="247"/>
+      <c r="BV5" s="247"/>
+      <c r="BW5" s="247"/>
+      <c r="BX5" s="247"/>
     </row>
     <row r="6" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="221">
+      <c r="B6" s="215">
         <v>45082</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="239" t="s">
+      <c r="C6" s="215"/>
+      <c r="D6" s="209" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="224" t="s">
@@ -3597,20 +3597,20 @@
       <c r="I6" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="195">
+      <c r="J6" s="231">
         <v>43808</v>
       </c>
-      <c r="K6" s="195">
+      <c r="K6" s="231">
         <v>43815</v>
       </c>
-      <c r="L6" s="192" t="s">
+      <c r="L6" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="231">
+      <c r="M6" s="233">
         <v>1</v>
       </c>
       <c r="N6" s="87"/>
-      <c r="O6" s="233">
+      <c r="O6" s="235">
         <v>34000</v>
       </c>
       <c r="P6" s="66"/>
@@ -3676,9 +3676,9 @@
       <c r="BX6" s="66"/>
     </row>
     <row r="7" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="240"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="224"/>
       <c r="F7" s="80" t="s">
         <v>31</v>
@@ -3686,12 +3686,12 @@
       <c r="G7" s="225"/>
       <c r="H7" s="226"/>
       <c r="I7" s="227"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="232"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="234"/>
       <c r="N7" s="83"/>
-      <c r="O7" s="234"/>
+      <c r="O7" s="236"/>
       <c r="P7" s="66"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
@@ -3755,14 +3755,14 @@
       <c r="BX7" s="67"/>
     </row>
     <row r="8" spans="2:76" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="240"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="224"/>
       <c r="F8" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="242" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="80" t="s">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="83"/>
-      <c r="O8" s="234"/>
+      <c r="O8" s="236"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
@@ -3848,14 +3848,14 @@
       <c r="BX8" s="67"/>
     </row>
     <row r="9" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="240"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="224"/>
       <c r="F9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="206"/>
+      <c r="G9" s="242"/>
       <c r="H9" s="88" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="84"/>
-      <c r="O9" s="234"/>
+      <c r="O9" s="236"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
@@ -3939,14 +3939,14 @@
       <c r="BX9" s="67"/>
     </row>
     <row r="10" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="240"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="224"/>
       <c r="F10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="206"/>
+      <c r="G10" s="242"/>
       <c r="H10" s="88" t="s">
         <v>40</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="234"/>
+      <c r="O10" s="236"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="66"/>
@@ -4028,14 +4028,14 @@
       <c r="BX10" s="67"/>
     </row>
     <row r="11" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="240"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="210"/>
       <c r="E11" s="224"/>
       <c r="F11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="206"/>
+      <c r="G11" s="242"/>
       <c r="H11" s="19" t="s">
         <v>44</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="84"/>
-      <c r="O11" s="234"/>
+      <c r="O11" s="236"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="66"/>
@@ -4119,14 +4119,14 @@
       <c r="BX11" s="67"/>
     </row>
     <row r="12" spans="2:76" s="16" customFormat="1" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="222"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="240"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="224"/>
       <c r="F12" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="206"/>
+      <c r="G12" s="242"/>
       <c r="H12" s="88" t="s">
         <v>47</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="24"/>
-      <c r="O12" s="234"/>
+      <c r="O12" s="236"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
@@ -4210,14 +4210,14 @@
       <c r="BX12" s="67"/>
     </row>
     <row r="13" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="240"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="224"/>
       <c r="F13" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="206"/>
+      <c r="G13" s="242"/>
       <c r="H13" s="88" t="s">
         <v>50</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="234"/>
+      <c r="O13" s="236"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
@@ -4301,14 +4301,14 @@
       <c r="BX13" s="67"/>
     </row>
     <row r="14" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="222"/>
-      <c r="C14" s="222"/>
-      <c r="D14" s="240"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="224"/>
       <c r="F14" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="206"/>
+      <c r="G14" s="242"/>
       <c r="H14" s="88" t="s">
         <v>51</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0.9</v>
       </c>
       <c r="N14" s="84"/>
-      <c r="O14" s="234"/>
+      <c r="O14" s="236"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -4392,14 +4392,14 @@
       <c r="BX14" s="67"/>
     </row>
     <row r="15" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="240"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="210"/>
       <c r="E15" s="224"/>
       <c r="F15" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="206"/>
+      <c r="G15" s="242"/>
       <c r="H15" s="88" t="s">
         <v>52</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="24"/>
-      <c r="O15" s="234"/>
+      <c r="O15" s="236"/>
       <c r="P15" s="66"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="66"/>
@@ -4483,14 +4483,14 @@
       <c r="BX15" s="67"/>
     </row>
     <row r="16" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="240"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="224"/>
       <c r="F16" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="206"/>
+      <c r="G16" s="242"/>
       <c r="H16" s="88" t="s">
         <v>56</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="N16" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="234"/>
+      <c r="O16" s="236"/>
       <c r="P16" s="66"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
@@ -4576,14 +4576,14 @@
       <c r="BX16" s="67"/>
     </row>
     <row r="17" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="240"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="224"/>
       <c r="F17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="206"/>
+      <c r="G17" s="242"/>
       <c r="H17" s="88" t="s">
         <v>59</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="84"/>
-      <c r="O17" s="234"/>
+      <c r="O17" s="236"/>
       <c r="P17" s="66"/>
       <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
@@ -4667,14 +4667,14 @@
       <c r="BX17" s="67"/>
     </row>
     <row r="18" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="240"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="224"/>
       <c r="F18" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="206"/>
+      <c r="G18" s="242"/>
       <c r="H18" s="26" t="s">
         <v>62</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="83"/>
-      <c r="O18" s="234"/>
+      <c r="O18" s="236"/>
       <c r="P18" s="66"/>
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
@@ -4756,24 +4756,24 @@
       <c r="BX18" s="67"/>
     </row>
     <row r="19" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="222"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="240"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="224"/>
       <c r="F19" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="206"/>
-      <c r="H19" s="207" t="s">
+      <c r="G19" s="242"/>
+      <c r="H19" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="211"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="202"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="251"/>
       <c r="M19" s="80"/>
       <c r="N19" s="83"/>
-      <c r="O19" s="234"/>
+      <c r="O19" s="236"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
@@ -4837,22 +4837,22 @@
       <c r="BX19" s="67"/>
     </row>
     <row r="20" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="240"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="224"/>
       <c r="F20" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="206"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="202"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="251"/>
       <c r="M20" s="80"/>
       <c r="N20" s="83"/>
-      <c r="O20" s="234"/>
+      <c r="O20" s="236"/>
       <c r="P20" s="66"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
@@ -4916,22 +4916,22 @@
       <c r="BX20" s="67"/>
     </row>
     <row r="21" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="222"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="240"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="224"/>
       <c r="F21" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="206"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
-      <c r="L21" s="202"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="251"/>
       <c r="M21" s="80"/>
       <c r="N21" s="83"/>
-      <c r="O21" s="234"/>
+      <c r="O21" s="236"/>
       <c r="P21" s="66"/>
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
@@ -4995,22 +4995,22 @@
       <c r="BX21" s="67"/>
     </row>
     <row r="22" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="240"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="210"/>
       <c r="E22" s="224"/>
       <c r="F22" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="206"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="202"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="243"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="251"/>
       <c r="M22" s="83"/>
       <c r="N22" s="83"/>
-      <c r="O22" s="234"/>
+      <c r="O22" s="236"/>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
@@ -5074,14 +5074,14 @@
       <c r="BX22" s="67"/>
     </row>
     <row r="23" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="240"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="210"/>
       <c r="E23" s="224"/>
       <c r="F23" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="206"/>
+      <c r="G23" s="242"/>
       <c r="H23" s="88" t="s">
         <v>70</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="83"/>
-      <c r="O23" s="234"/>
+      <c r="O23" s="236"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
       <c r="R23" s="66"/>
@@ -5165,14 +5165,14 @@
       <c r="BX23" s="67"/>
     </row>
     <row r="24" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="222"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="240"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="210"/>
       <c r="E24" s="224"/>
       <c r="F24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="206"/>
+      <c r="G24" s="242"/>
       <c r="H24" s="88"/>
       <c r="I24" s="82"/>
       <c r="J24" s="17"/>
@@ -5180,7 +5180,7 @@
       <c r="L24" s="83"/>
       <c r="M24" s="84"/>
       <c r="N24" s="83"/>
-      <c r="O24" s="234"/>
+      <c r="O24" s="236"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="66"/>
       <c r="R24" s="66"/>
@@ -5244,14 +5244,14 @@
       <c r="BX24" s="67"/>
     </row>
     <row r="25" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="240"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="210"/>
       <c r="E25" s="224"/>
       <c r="F25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="206"/>
+      <c r="G25" s="242"/>
       <c r="H25" s="26" t="s">
         <v>75</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="N25" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="234"/>
+      <c r="O25" s="236"/>
       <c r="P25" s="66"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
@@ -5335,12 +5335,12 @@
       <c r="BX25" s="67"/>
     </row>
     <row r="26" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="222"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="240"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="210"/>
       <c r="E26" s="224"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="206"/>
+      <c r="G26" s="242"/>
       <c r="H26" s="88" t="s">
         <v>78</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0.7</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="234"/>
+      <c r="O26" s="236"/>
       <c r="P26" s="92"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="92"/>
@@ -5424,12 +5424,12 @@
       <c r="BX26" s="67"/>
     </row>
     <row r="27" spans="2:76" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="240"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="210"/>
       <c r="E27" s="224"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="206"/>
+      <c r="G27" s="242"/>
       <c r="H27" s="31" t="s">
         <v>79</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="N27" s="187">
         <v>44012</v>
       </c>
-      <c r="O27" s="234"/>
+      <c r="O27" s="236"/>
       <c r="P27" s="66"/>
       <c r="Q27" s="66"/>
       <c r="R27" s="66"/>
@@ -5515,32 +5515,32 @@
       <c r="BX27" s="67"/>
     </row>
     <row r="28" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="222"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="240"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="210"/>
       <c r="E28" s="224"/>
       <c r="F28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="206"/>
+      <c r="G28" s="242"/>
       <c r="H28" s="226" t="s">
         <v>82</v>
       </c>
       <c r="I28" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="203">
+      <c r="J28" s="238">
         <v>43998</v>
       </c>
-      <c r="K28" s="203">
+      <c r="K28" s="238">
         <v>43998</v>
       </c>
-      <c r="L28" s="192" t="s">
+      <c r="L28" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="193"/>
+      <c r="M28" s="245"/>
       <c r="N28" s="87"/>
-      <c r="O28" s="234"/>
+      <c r="O28" s="236"/>
       <c r="P28" s="66"/>
       <c r="Q28" s="66"/>
       <c r="R28" s="66"/>
@@ -5604,22 +5604,22 @@
       <c r="BX28" s="67"/>
     </row>
     <row r="29" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="241"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="224"/>
       <c r="F29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="206"/>
+      <c r="G29" s="242"/>
       <c r="H29" s="226"/>
       <c r="I29" s="227"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="194"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="239"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="246"/>
       <c r="N29" s="87"/>
-      <c r="O29" s="235"/>
+      <c r="O29" s="237"/>
       <c r="P29" s="66"/>
       <c r="Q29" s="66"/>
       <c r="R29" s="66"/>
@@ -5987,18 +5987,18 @@
       </c>
     </row>
     <row r="32" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="208" t="s">
+      <c r="B32" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="208" t="s">
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="209"/>
-      <c r="I32" s="210"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="194"/>
       <c r="J32" s="28">
         <v>43987</v>
       </c>
@@ -6192,20 +6192,20 @@
       </c>
     </row>
     <row r="33" spans="2:76" s="16" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="245">
+      <c r="B33" s="218">
         <v>45082</v>
       </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="242" t="s">
+      <c r="C33" s="218"/>
+      <c r="D33" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="212" t="s">
+      <c r="E33" s="208" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="213" t="s">
+      <c r="G33" s="204" t="s">
         <v>88</v>
       </c>
       <c r="H33" s="88" t="s">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="30"/>
-      <c r="O33" s="196">
+      <c r="O33" s="195">
         <v>85000</v>
       </c>
       <c r="P33" s="66"/>
@@ -6293,14 +6293,14 @@
       <c r="BX33" s="67"/>
     </row>
     <row r="34" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="246"/>
-      <c r="C34" s="246"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="212"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="208"/>
       <c r="F34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="204"/>
       <c r="H34" s="88" t="s">
         <v>91</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="197"/>
+      <c r="O34" s="196"/>
       <c r="P34" s="66"/>
       <c r="Q34" s="66"/>
       <c r="R34" s="66"/>
@@ -6384,14 +6384,14 @@
       <c r="BX34" s="67"/>
     </row>
     <row r="35" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="246"/>
-      <c r="C35" s="246"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="212"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="208"/>
       <c r="F35" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="204"/>
       <c r="H35" s="26" t="s">
         <v>93</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="N35" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="O35" s="197"/>
+      <c r="O35" s="196"/>
       <c r="P35" s="92"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="92"/>
@@ -6477,14 +6477,14 @@
       <c r="BX35" s="67"/>
     </row>
     <row r="36" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="246"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="243"/>
-      <c r="E36" s="212"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="208"/>
       <c r="F36" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="213"/>
+      <c r="G36" s="204"/>
       <c r="H36" s="186" t="s">
         <v>95</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="61"/>
-      <c r="O36" s="197"/>
+      <c r="O36" s="196"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
@@ -6568,12 +6568,12 @@
       <c r="BX36" s="67"/>
     </row>
     <row r="37" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="246"/>
-      <c r="C37" s="246"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="212"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="208"/>
       <c r="F37" s="80"/>
-      <c r="G37" s="213"/>
+      <c r="G37" s="204"/>
       <c r="H37" s="186" t="s">
         <v>96</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="61"/>
-      <c r="O37" s="197"/>
+      <c r="O37" s="196"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
@@ -6657,12 +6657,12 @@
       <c r="BX37" s="67"/>
     </row>
     <row r="38" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="246"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="212"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="208"/>
       <c r="F38" s="80"/>
-      <c r="G38" s="213"/>
+      <c r="G38" s="204"/>
       <c r="H38" s="43" t="s">
         <v>97</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="M38" s="47"/>
       <c r="N38" s="46"/>
-      <c r="O38" s="197"/>
+      <c r="O38" s="196"/>
       <c r="P38" s="66"/>
       <c r="Q38" s="66"/>
       <c r="R38" s="66"/>
@@ -6744,14 +6744,14 @@
       <c r="BX38" s="67"/>
     </row>
     <row r="39" spans="2:76" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="246"/>
-      <c r="C39" s="246"/>
-      <c r="D39" s="243"/>
-      <c r="E39" s="212"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="208"/>
       <c r="F39" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="213"/>
+      <c r="G39" s="204"/>
       <c r="H39" s="88" t="s">
         <v>101</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="83"/>
-      <c r="O39" s="197"/>
+      <c r="O39" s="196"/>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
@@ -6835,14 +6835,14 @@
       <c r="BX39" s="67"/>
     </row>
     <row r="40" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="246"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="243"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212" t="s">
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="213"/>
+      <c r="G40" s="204"/>
       <c r="H40" s="26" t="s">
         <v>103</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="N40" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="O40" s="197"/>
+      <c r="O40" s="196"/>
       <c r="P40" s="66"/>
       <c r="Q40" s="66"/>
       <c r="R40" s="66"/>
@@ -6926,12 +6926,12 @@
       <c r="BX40" s="67"/>
     </row>
     <row r="41" spans="2:76" s="16" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="246"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="213"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="204"/>
       <c r="H41" s="88" t="s">
         <v>105</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="N41" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="O41" s="197"/>
+      <c r="O41" s="196"/>
       <c r="P41" s="92"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="92"/>
@@ -7017,12 +7017,12 @@
       <c r="BX41" s="67"/>
     </row>
     <row r="42" spans="2:76" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="246"/>
-      <c r="C42" s="246"/>
-      <c r="D42" s="243"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="213"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="204"/>
       <c r="H42" s="88" t="s">
         <v>106</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="30"/>
-      <c r="O42" s="197"/>
+      <c r="O42" s="196"/>
       <c r="P42" s="66"/>
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
@@ -7106,12 +7106,12 @@
       <c r="BX42" s="67"/>
     </row>
     <row r="43" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="246"/>
-      <c r="C43" s="246"/>
-      <c r="D43" s="243"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="212"/>
-      <c r="G43" s="213"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="208"/>
+      <c r="F43" s="208"/>
+      <c r="G43" s="204"/>
       <c r="H43" s="88" t="s">
         <v>108</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="30"/>
-      <c r="O43" s="197"/>
+      <c r="O43" s="196"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
@@ -7195,12 +7195,12 @@
       <c r="BX43" s="67"/>
     </row>
     <row r="44" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="246"/>
-      <c r="C44" s="246"/>
-      <c r="D44" s="243"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="213"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="204"/>
       <c r="H44" s="88" t="s">
         <v>109</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="N44" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O44" s="197"/>
+      <c r="O44" s="196"/>
       <c r="P44" s="66"/>
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
@@ -7284,12 +7284,12 @@
       <c r="BX44" s="67"/>
     </row>
     <row r="45" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="246"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="213"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="208"/>
+      <c r="F45" s="208"/>
+      <c r="G45" s="204"/>
       <c r="H45" s="88" t="s">
         <v>111</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="N45" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O45" s="197"/>
+      <c r="O45" s="196"/>
       <c r="P45" s="66"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
@@ -7373,12 +7373,12 @@
       <c r="BX45" s="67"/>
     </row>
     <row r="46" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="246"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="213"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="204"/>
       <c r="H46" s="88" t="s">
         <v>113</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="N46" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O46" s="197"/>
+      <c r="O46" s="196"/>
       <c r="P46" s="66"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
@@ -7462,12 +7462,12 @@
       <c r="BX46" s="67"/>
     </row>
     <row r="47" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="246"/>
-      <c r="C47" s="246"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="213"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="208"/>
+      <c r="F47" s="208"/>
+      <c r="G47" s="204"/>
       <c r="H47" s="88" t="s">
         <v>114</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="N47" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O47" s="197"/>
+      <c r="O47" s="196"/>
       <c r="P47" s="66"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
@@ -7551,12 +7551,12 @@
       <c r="BX47" s="67"/>
     </row>
     <row r="48" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="246"/>
-      <c r="C48" s="246"/>
-      <c r="D48" s="243"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="213"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="213"/>
+      <c r="E48" s="208"/>
+      <c r="F48" s="208"/>
+      <c r="G48" s="204"/>
       <c r="H48" s="88" t="s">
         <v>115</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="N48" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="197"/>
+      <c r="O48" s="196"/>
       <c r="P48" s="66"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
@@ -7640,12 +7640,12 @@
       <c r="BX48" s="67"/>
     </row>
     <row r="49" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="246"/>
-      <c r="C49" s="246"/>
-      <c r="D49" s="243"/>
-      <c r="E49" s="212"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="213"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="219"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="204"/>
       <c r="H49" s="88" t="s">
         <v>117</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="N49" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O49" s="197"/>
+      <c r="O49" s="196"/>
       <c r="P49" s="66"/>
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
@@ -7729,12 +7729,12 @@
       <c r="BX49" s="67"/>
     </row>
     <row r="50" spans="2:76" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="243"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="212"/>
-      <c r="G50" s="213"/>
+      <c r="B50" s="219"/>
+      <c r="C50" s="219"/>
+      <c r="D50" s="213"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="204"/>
       <c r="H50" s="43" t="s">
         <v>119</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="M50" s="47"/>
       <c r="N50" s="48"/>
-      <c r="O50" s="197"/>
+      <c r="O50" s="196"/>
       <c r="P50" s="66"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
@@ -7816,14 +7816,14 @@
       <c r="BX50" s="67"/>
     </row>
     <row r="51" spans="2:76" s="16" customFormat="1" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="247"/>
-      <c r="C51" s="247"/>
-      <c r="D51" s="244"/>
-      <c r="E51" s="212"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="208"/>
       <c r="F51" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="213"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="88" t="s">
         <v>122</v>
       </c>
@@ -7843,7 +7843,7 @@
       <c r="N51" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="O51" s="198"/>
+      <c r="O51" s="197"/>
       <c r="P51" s="66"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
@@ -8211,18 +8211,18 @@
       </c>
     </row>
     <row r="54" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="208" t="s">
+      <c r="B54" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="209"/>
-      <c r="F54" s="210"/>
-      <c r="G54" s="208" t="s">
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="209"/>
-      <c r="I54" s="210"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="194"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="12"/>
@@ -8414,20 +8414,20 @@
       </c>
     </row>
     <row r="55" spans="2:76" s="16" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="236">
+      <c r="B55" s="205">
         <v>45082</v>
       </c>
-      <c r="C55" s="236"/>
-      <c r="D55" s="242" t="s">
+      <c r="C55" s="205"/>
+      <c r="D55" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="212" t="s">
+      <c r="E55" s="208" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="213" t="s">
+      <c r="G55" s="204" t="s">
         <v>88</v>
       </c>
       <c r="H55" s="88" t="s">
@@ -8439,7 +8439,7 @@
       <c r="L55" s="185"/>
       <c r="M55" s="81"/>
       <c r="N55" s="83"/>
-      <c r="O55" s="196">
+      <c r="O55" s="195">
         <v>34000</v>
       </c>
       <c r="P55" s="66"/>
@@ -8505,14 +8505,14 @@
       <c r="BX55" s="67"/>
     </row>
     <row r="56" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="237"/>
-      <c r="C56" s="237"/>
-      <c r="D56" s="243"/>
-      <c r="E56" s="212"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="213"/>
+      <c r="E56" s="208"/>
       <c r="F56" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="213"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="88" t="s">
         <v>127</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="83"/>
-      <c r="O56" s="197"/>
+      <c r="O56" s="196"/>
       <c r="P56" s="66"/>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
@@ -8596,14 +8596,14 @@
       <c r="BX56" s="67"/>
     </row>
     <row r="57" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="237"/>
-      <c r="C57" s="237"/>
-      <c r="D57" s="243"/>
-      <c r="E57" s="212"/>
-      <c r="F57" s="216" t="s">
+      <c r="B57" s="206"/>
+      <c r="C57" s="206"/>
+      <c r="D57" s="213"/>
+      <c r="E57" s="208"/>
+      <c r="F57" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="213"/>
+      <c r="G57" s="204"/>
       <c r="H57" s="26" t="s">
         <v>129</v>
       </c>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="83"/>
-      <c r="O57" s="197"/>
+      <c r="O57" s="196"/>
       <c r="P57" s="66"/>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
@@ -8685,12 +8685,12 @@
       <c r="BX57" s="67"/>
     </row>
     <row r="58" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="237"/>
-      <c r="C58" s="237"/>
-      <c r="D58" s="243"/>
-      <c r="E58" s="212"/>
-      <c r="F58" s="216"/>
-      <c r="G58" s="213"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="206"/>
+      <c r="D58" s="213"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="203"/>
+      <c r="G58" s="204"/>
       <c r="H58" s="26" t="s">
         <v>130</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="83"/>
-      <c r="O58" s="197"/>
+      <c r="O58" s="196"/>
       <c r="P58" s="66"/>
       <c r="Q58" s="66"/>
       <c r="R58" s="66"/>
@@ -8772,14 +8772,14 @@
       <c r="BX58" s="67"/>
     </row>
     <row r="59" spans="2:76" s="16" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="237"/>
-      <c r="C59" s="237"/>
-      <c r="D59" s="243"/>
-      <c r="E59" s="212"/>
+      <c r="B59" s="206"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="213"/>
+      <c r="E59" s="208"/>
       <c r="F59" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="213"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="88" t="s">
         <v>132</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>0.6</v>
       </c>
       <c r="N59" s="83"/>
-      <c r="O59" s="197"/>
+      <c r="O59" s="196"/>
       <c r="P59" s="66"/>
       <c r="Q59" s="66"/>
       <c r="R59" s="66"/>
@@ -8863,32 +8863,32 @@
       <c r="BX59" s="67"/>
     </row>
     <row r="60" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="237"/>
-      <c r="C60" s="237"/>
-      <c r="D60" s="243"/>
-      <c r="E60" s="212"/>
-      <c r="F60" s="216" t="s">
+      <c r="B60" s="206"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="213"/>
+      <c r="E60" s="208"/>
+      <c r="F60" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="213"/>
+      <c r="G60" s="204"/>
       <c r="H60" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="217" t="s">
+      <c r="I60" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="250">
+      <c r="J60" s="198">
         <v>44027</v>
       </c>
-      <c r="K60" s="250">
+      <c r="K60" s="198">
         <v>44033</v>
       </c>
-      <c r="L60" s="253" t="s">
+      <c r="L60" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="M60" s="254"/>
-      <c r="N60" s="216"/>
-      <c r="O60" s="197"/>
+      <c r="M60" s="202"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="196"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="66"/>
       <c r="R60" s="66"/>
@@ -8952,22 +8952,22 @@
       <c r="BX60" s="67"/>
     </row>
     <row r="61" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="237"/>
-      <c r="C61" s="237"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="212"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="213"/>
+      <c r="B61" s="206"/>
+      <c r="C61" s="206"/>
+      <c r="D61" s="213"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="204"/>
       <c r="H61" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="217"/>
-      <c r="J61" s="251"/>
-      <c r="K61" s="251"/>
-      <c r="L61" s="253"/>
-      <c r="M61" s="254"/>
-      <c r="N61" s="216"/>
-      <c r="O61" s="197"/>
+      <c r="I61" s="240"/>
+      <c r="J61" s="199"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="201"/>
+      <c r="M61" s="202"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="196"/>
       <c r="P61" s="66"/>
       <c r="Q61" s="66"/>
       <c r="R61" s="66"/>
@@ -9031,22 +9031,22 @@
       <c r="BX61" s="67"/>
     </row>
     <row r="62" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="237"/>
-      <c r="C62" s="237"/>
-      <c r="D62" s="243"/>
-      <c r="E62" s="212"/>
-      <c r="F62" s="216"/>
-      <c r="G62" s="213"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="203"/>
+      <c r="G62" s="204"/>
       <c r="H62" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="I62" s="217"/>
-      <c r="J62" s="251"/>
-      <c r="K62" s="251"/>
-      <c r="L62" s="253"/>
-      <c r="M62" s="254"/>
-      <c r="N62" s="216"/>
-      <c r="O62" s="197"/>
+      <c r="I62" s="240"/>
+      <c r="J62" s="199"/>
+      <c r="K62" s="199"/>
+      <c r="L62" s="201"/>
+      <c r="M62" s="202"/>
+      <c r="N62" s="203"/>
+      <c r="O62" s="196"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="66"/>
       <c r="R62" s="66"/>
@@ -9110,22 +9110,22 @@
       <c r="BX62" s="67"/>
     </row>
     <row r="63" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="237"/>
-      <c r="C63" s="237"/>
-      <c r="D63" s="243"/>
-      <c r="E63" s="212"/>
-      <c r="F63" s="216"/>
-      <c r="G63" s="213"/>
+      <c r="B63" s="206"/>
+      <c r="C63" s="206"/>
+      <c r="D63" s="213"/>
+      <c r="E63" s="208"/>
+      <c r="F63" s="203"/>
+      <c r="G63" s="204"/>
       <c r="H63" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="217"/>
-      <c r="J63" s="251"/>
-      <c r="K63" s="251"/>
-      <c r="L63" s="253"/>
-      <c r="M63" s="254"/>
-      <c r="N63" s="216"/>
-      <c r="O63" s="197"/>
+      <c r="I63" s="240"/>
+      <c r="J63" s="199"/>
+      <c r="K63" s="199"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="202"/>
+      <c r="N63" s="203"/>
+      <c r="O63" s="196"/>
       <c r="P63" s="66"/>
       <c r="Q63" s="66"/>
       <c r="R63" s="66"/>
@@ -9189,22 +9189,22 @@
       <c r="BX63" s="67"/>
     </row>
     <row r="64" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="237"/>
-      <c r="C64" s="237"/>
-      <c r="D64" s="243"/>
-      <c r="E64" s="212"/>
-      <c r="F64" s="216"/>
-      <c r="G64" s="213"/>
+      <c r="B64" s="206"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="203"/>
+      <c r="G64" s="204"/>
       <c r="H64" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="217"/>
-      <c r="J64" s="252"/>
-      <c r="K64" s="252"/>
-      <c r="L64" s="253"/>
-      <c r="M64" s="254"/>
-      <c r="N64" s="216"/>
-      <c r="O64" s="197"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="200"/>
+      <c r="K64" s="200"/>
+      <c r="L64" s="201"/>
+      <c r="M64" s="202"/>
+      <c r="N64" s="203"/>
+      <c r="O64" s="196"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="66"/>
       <c r="R64" s="66"/>
@@ -9268,12 +9268,12 @@
       <c r="BX64" s="67"/>
     </row>
     <row r="65" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="243"/>
-      <c r="E65" s="212"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="213"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="206"/>
+      <c r="D65" s="213"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="203"/>
+      <c r="G65" s="204"/>
       <c r="H65" s="88" t="s">
         <v>141</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="M65" s="84"/>
       <c r="N65" s="81"/>
-      <c r="O65" s="197"/>
+      <c r="O65" s="196"/>
       <c r="P65" s="66"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
@@ -9355,12 +9355,12 @@
       <c r="BX65" s="67"/>
     </row>
     <row r="66" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="237"/>
-      <c r="C66" s="237"/>
-      <c r="D66" s="243"/>
-      <c r="E66" s="212"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="213"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="213"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="203"/>
+      <c r="G66" s="204"/>
       <c r="H66" s="88" t="s">
         <v>142</v>
       </c>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="M66" s="84"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="197"/>
+      <c r="O66" s="196"/>
       <c r="P66" s="66"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
@@ -9442,12 +9442,12 @@
       <c r="BX66" s="67"/>
     </row>
     <row r="67" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="237"/>
-      <c r="C67" s="237"/>
-      <c r="D67" s="243"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="213"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="204"/>
       <c r="H67" s="88" t="s">
         <v>143</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="M67" s="84"/>
       <c r="N67" s="80"/>
-      <c r="O67" s="197"/>
+      <c r="O67" s="196"/>
       <c r="P67" s="66"/>
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
@@ -9529,12 +9529,12 @@
       <c r="BX67" s="67"/>
     </row>
     <row r="68" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="237"/>
-      <c r="C68" s="237"/>
-      <c r="D68" s="243"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="213"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="206"/>
+      <c r="D68" s="213"/>
+      <c r="E68" s="208"/>
+      <c r="F68" s="203"/>
+      <c r="G68" s="204"/>
       <c r="H68" s="88" t="s">
         <v>144</v>
       </c>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="M68" s="84"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="197"/>
+      <c r="O68" s="196"/>
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="66"/>
@@ -9616,12 +9616,12 @@
       <c r="BX68" s="67"/>
     </row>
     <row r="69" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="237"/>
-      <c r="C69" s="237"/>
-      <c r="D69" s="243"/>
-      <c r="E69" s="212"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="213"/>
+      <c r="E69" s="208"/>
       <c r="F69" s="83"/>
-      <c r="G69" s="213"/>
+      <c r="G69" s="204"/>
       <c r="H69" s="88" t="s">
         <v>145</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="N69" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O69" s="197"/>
+      <c r="O69" s="196"/>
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="66"/>
@@ -9705,14 +9705,14 @@
       <c r="BX69" s="67"/>
     </row>
     <row r="70" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="237"/>
-      <c r="C70" s="237"/>
-      <c r="D70" s="243"/>
-      <c r="E70" s="212"/>
+      <c r="B70" s="206"/>
+      <c r="C70" s="206"/>
+      <c r="D70" s="213"/>
+      <c r="E70" s="208"/>
       <c r="F70" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="213"/>
+      <c r="G70" s="204"/>
       <c r="H70" s="88" t="s">
         <v>148</v>
       </c>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="M70" s="84"/>
       <c r="N70" s="83"/>
-      <c r="O70" s="197"/>
+      <c r="O70" s="196"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="66"/>
       <c r="R70" s="66"/>
@@ -9794,14 +9794,14 @@
       <c r="BX70" s="67"/>
     </row>
     <row r="71" spans="2:76" s="16" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="237"/>
-      <c r="C71" s="237"/>
-      <c r="D71" s="243"/>
-      <c r="E71" s="212"/>
+      <c r="B71" s="206"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="213"/>
+      <c r="E71" s="208"/>
       <c r="F71" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="213"/>
+      <c r="G71" s="204"/>
       <c r="H71" s="88"/>
       <c r="I71" s="82"/>
       <c r="J71" s="89"/>
@@ -9809,7 +9809,7 @@
       <c r="L71" s="83"/>
       <c r="M71" s="84"/>
       <c r="N71" s="83"/>
-      <c r="O71" s="197"/>
+      <c r="O71" s="196"/>
       <c r="P71" s="66"/>
       <c r="Q71" s="66"/>
       <c r="R71" s="66"/>
@@ -9873,24 +9873,24 @@
       <c r="BX71" s="67"/>
     </row>
     <row r="72" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="237"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="243"/>
-      <c r="E72" s="212"/>
+      <c r="B72" s="206"/>
+      <c r="C72" s="206"/>
+      <c r="D72" s="213"/>
+      <c r="E72" s="208"/>
       <c r="F72" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="213"/>
+      <c r="G72" s="204"/>
       <c r="H72" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="211" t="s">
+      <c r="I72" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="J72" s="214">
+      <c r="J72" s="190">
         <v>44034</v>
       </c>
-      <c r="K72" s="214">
+      <c r="K72" s="190">
         <v>44036</v>
       </c>
       <c r="L72" s="83" t="s">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="83"/>
-      <c r="O72" s="197"/>
+      <c r="O72" s="196"/>
       <c r="P72" s="66"/>
       <c r="Q72" s="66"/>
       <c r="R72" s="66"/>
@@ -9962,26 +9962,26 @@
       <c r="BX72" s="67"/>
     </row>
     <row r="73" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="238"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="244"/>
-      <c r="E73" s="212"/>
+      <c r="B73" s="207"/>
+      <c r="C73" s="207"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="208"/>
       <c r="F73" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="213"/>
+      <c r="G73" s="204"/>
       <c r="H73" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="211"/>
-      <c r="J73" s="215"/>
-      <c r="K73" s="215"/>
+      <c r="I73" s="241"/>
+      <c r="J73" s="191"/>
+      <c r="K73" s="191"/>
       <c r="L73" s="83" t="s">
         <v>156</v>
       </c>
       <c r="M73" s="84"/>
       <c r="N73" s="83"/>
-      <c r="O73" s="198"/>
+      <c r="O73" s="197"/>
       <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
@@ -10360,11 +10360,11 @@
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="208" t="s">
+      <c r="G76" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="209"/>
-      <c r="I76" s="210"/>
+      <c r="H76" s="193"/>
+      <c r="I76" s="194"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -10556,20 +10556,20 @@
       </c>
     </row>
     <row r="77" spans="2:76" s="16" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="236">
+      <c r="B77" s="205">
         <v>45082</v>
       </c>
-      <c r="C77" s="236"/>
-      <c r="D77" s="242" t="s">
+      <c r="C77" s="205"/>
+      <c r="D77" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="212" t="s">
+      <c r="E77" s="208" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G77" s="213" t="s">
+      <c r="G77" s="204" t="s">
         <v>158</v>
       </c>
       <c r="H77" s="88" t="s">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="M77" s="84"/>
       <c r="N77" s="83"/>
-      <c r="O77" s="196">
+      <c r="O77" s="195">
         <v>17000</v>
       </c>
       <c r="P77" s="69"/>
@@ -10655,14 +10655,14 @@
       <c r="BX77" s="68"/>
     </row>
     <row r="78" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="237"/>
-      <c r="C78" s="237"/>
-      <c r="D78" s="243"/>
-      <c r="E78" s="212"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="206"/>
+      <c r="D78" s="213"/>
+      <c r="E78" s="208"/>
       <c r="F78" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="213"/>
+      <c r="G78" s="204"/>
       <c r="H78" s="88" t="s">
         <v>161</v>
       </c>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="M78" s="84"/>
       <c r="N78" s="83"/>
-      <c r="O78" s="197"/>
+      <c r="O78" s="196"/>
       <c r="P78" s="69"/>
       <c r="Q78" s="68"/>
       <c r="R78" s="68"/>
@@ -10744,14 +10744,14 @@
       <c r="BX78" s="68"/>
     </row>
     <row r="79" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="237"/>
-      <c r="C79" s="237"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="212"/>
-      <c r="F79" s="216" t="s">
+      <c r="B79" s="206"/>
+      <c r="C79" s="206"/>
+      <c r="D79" s="213"/>
+      <c r="E79" s="208"/>
+      <c r="F79" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="G79" s="213"/>
+      <c r="G79" s="204"/>
       <c r="H79" s="88" t="s">
         <v>163</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="M79" s="84"/>
       <c r="N79" s="83"/>
-      <c r="O79" s="197"/>
+      <c r="O79" s="196"/>
       <c r="P79" s="69"/>
       <c r="Q79" s="68"/>
       <c r="R79" s="68"/>
@@ -10833,12 +10833,12 @@
       <c r="BX79" s="68"/>
     </row>
     <row r="80" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="237"/>
-      <c r="C80" s="237"/>
-      <c r="D80" s="243"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="216"/>
-      <c r="G80" s="213"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="206"/>
+      <c r="D80" s="213"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="203"/>
+      <c r="G80" s="204"/>
       <c r="H80" s="88" t="s">
         <v>165</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="N80" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="O80" s="197"/>
+      <c r="O80" s="196"/>
       <c r="P80" s="68"/>
       <c r="Q80" s="68"/>
       <c r="R80" s="68"/>
@@ -10924,14 +10924,14 @@
       <c r="BX80" s="68"/>
     </row>
     <row r="81" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="237"/>
-      <c r="C81" s="237"/>
-      <c r="D81" s="243"/>
-      <c r="E81" s="212"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="206"/>
+      <c r="D81" s="213"/>
+      <c r="E81" s="208"/>
       <c r="F81" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="213"/>
+      <c r="G81" s="204"/>
       <c r="H81" s="88" t="s">
         <v>168</v>
       </c>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="M81" s="84"/>
       <c r="N81" s="83"/>
-      <c r="O81" s="197"/>
+      <c r="O81" s="196"/>
       <c r="P81" s="68"/>
       <c r="Q81" s="68"/>
       <c r="R81" s="68"/>
@@ -11013,14 +11013,14 @@
       <c r="BX81" s="68"/>
     </row>
     <row r="82" spans="2:76" s="16" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="237"/>
-      <c r="C82" s="237"/>
-      <c r="D82" s="243"/>
-      <c r="E82" s="212"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="206"/>
+      <c r="D82" s="213"/>
+      <c r="E82" s="208"/>
       <c r="F82" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="G82" s="213"/>
+      <c r="G82" s="204"/>
       <c r="H82" s="88" t="s">
         <v>170</v>
       </c>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="M82" s="84"/>
       <c r="N82" s="83"/>
-      <c r="O82" s="197"/>
+      <c r="O82" s="196"/>
       <c r="P82" s="68"/>
       <c r="Q82" s="68"/>
       <c r="R82" s="68"/>
@@ -11102,14 +11102,14 @@
       <c r="BX82" s="68"/>
     </row>
     <row r="83" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="237"/>
-      <c r="C83" s="237"/>
-      <c r="D83" s="243"/>
-      <c r="E83" s="212"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="213"/>
+      <c r="E83" s="208"/>
       <c r="F83" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="G83" s="213"/>
+      <c r="G83" s="204"/>
       <c r="H83" s="88" t="s">
         <v>172</v>
       </c>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="M83" s="84"/>
       <c r="N83" s="83"/>
-      <c r="O83" s="197"/>
+      <c r="O83" s="196"/>
       <c r="P83" s="68"/>
       <c r="Q83" s="68"/>
       <c r="R83" s="68"/>
@@ -11191,14 +11191,14 @@
       <c r="BX83" s="68"/>
     </row>
     <row r="84" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="237"/>
-      <c r="C84" s="237"/>
-      <c r="D84" s="243"/>
-      <c r="E84" s="212"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="206"/>
+      <c r="D84" s="213"/>
+      <c r="E84" s="208"/>
       <c r="F84" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="G84" s="213"/>
+      <c r="G84" s="204"/>
       <c r="H84" s="88" t="s">
         <v>175</v>
       </c>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="M84" s="84"/>
       <c r="N84" s="83"/>
-      <c r="O84" s="197"/>
+      <c r="O84" s="196"/>
       <c r="P84" s="68"/>
       <c r="Q84" s="68"/>
       <c r="R84" s="68"/>
@@ -11280,14 +11280,14 @@
       <c r="BX84" s="68"/>
     </row>
     <row r="85" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="238"/>
-      <c r="C85" s="238"/>
-      <c r="D85" s="244"/>
-      <c r="E85" s="212"/>
+      <c r="B85" s="207"/>
+      <c r="C85" s="207"/>
+      <c r="D85" s="214"/>
+      <c r="E85" s="208"/>
       <c r="F85" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="G85" s="213"/>
+      <c r="G85" s="204"/>
       <c r="H85" s="88" t="s">
         <v>176</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="L85" s="83"/>
       <c r="M85" s="84"/>
       <c r="N85" s="83"/>
-      <c r="O85" s="198"/>
+      <c r="O85" s="197"/>
       <c r="P85" s="68"/>
       <c r="Q85" s="68"/>
       <c r="R85" s="68"/>
@@ -11366,7 +11366,7 @@
       <c r="BW85" s="94"/>
       <c r="BX85" s="94"/>
     </row>
-    <row r="86" spans="2:76" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:76" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="53" t="s">
         <v>177</v>
       </c>
@@ -11378,10 +11378,10 @@
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="53"/>
-      <c r="G86" s="248" t="s">
+      <c r="G86" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="249"/>
+      <c r="H86" s="189"/>
       <c r="I86" s="53"/>
       <c r="J86" s="96"/>
       <c r="K86" s="62">
@@ -11469,17 +11469,55 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="O55:O73"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="M60:M64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="O77:O85"/>
-    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="P2:AX2"/>
+    <mergeCell ref="AY2:BX2"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AY5:BC5"/>
+    <mergeCell ref="BT5:BX5"/>
+    <mergeCell ref="BM5:BQ5"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O33:O51"/>
+    <mergeCell ref="BF5:BJ5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="G8:G29"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="E33:E51"/>
+    <mergeCell ref="G33:G51"/>
+    <mergeCell ref="F40:F50"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="G55:G73"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:B29"/>
+    <mergeCell ref="E6:E29"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="F79:F80"/>
     <mergeCell ref="B55:B73"/>
     <mergeCell ref="E55:E73"/>
@@ -11496,55 +11534,17 @@
     <mergeCell ref="B77:B85"/>
     <mergeCell ref="E77:E85"/>
     <mergeCell ref="B33:B51"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:B29"/>
-    <mergeCell ref="E6:E29"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E33:E51"/>
-    <mergeCell ref="G33:G51"/>
-    <mergeCell ref="F40:F50"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="G55:G73"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G8:G29"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O33:O51"/>
-    <mergeCell ref="BF5:BJ5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="P2:AX2"/>
-    <mergeCell ref="AY2:BX2"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AY5:BC5"/>
-    <mergeCell ref="BT5:BX5"/>
-    <mergeCell ref="BM5:BQ5"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="O55:O73"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="M60:M64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="O77:O85"/>
+    <mergeCell ref="G77:G85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11558,8 +11558,8 @@
   </sheetPr>
   <dimension ref="A2:AW18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11799,13 +11799,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="215" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="261" t="s">
@@ -11934,9 +11934,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="222"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -11963,11 +11963,11 @@
       <c r="S6" s="104"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="190"/>
-      <c r="X6" s="190"/>
-      <c r="Y6" s="190"/>
-      <c r="Z6" s="190"/>
+      <c r="V6" s="254"/>
+      <c r="W6" s="254"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="254"/>
+      <c r="Z6" s="254"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -11995,9 +11995,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="222"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="263"/>
       <c r="G7" s="135" t="s">
         <v>207</v>
@@ -12066,9 +12066,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="222"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="263"/>
       <c r="G8" s="135" t="s">
         <v>208</v>
@@ -12131,9 +12131,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="222"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -12192,9 +12192,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="222"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -12251,9 +12251,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="222"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="262"/>
       <c r="G11" s="135" t="s">
         <v>189</v>
@@ -12318,9 +12318,9 @@
     <row r="12" spans="1:49" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="222"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="216"/>
       <c r="F12" s="262"/>
       <c r="G12" s="135" t="s">
         <v>210</v>
@@ -12389,9 +12389,9 @@
     <row r="13" spans="1:49" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="222"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="216"/>
       <c r="F13" s="262"/>
       <c r="G13" s="135" t="s">
         <v>191</v>
@@ -12460,9 +12460,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="222"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="216"/>
       <c r="F14" s="262"/>
       <c r="G14" s="111" t="s">
         <v>216</v>
@@ -12531,9 +12531,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="222"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="216"/>
       <c r="F15" s="262"/>
       <c r="G15" s="135" t="s">
         <v>212</v>
@@ -12598,9 +12598,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="222"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="216"/>
       <c r="F16" s="262"/>
       <c r="G16" s="135" t="s">
         <v>213</v>
@@ -12661,9 +12661,9 @@
     <row r="17" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="260"/>
       <c r="B17" s="260"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="223"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="217"/>
       <c r="F17" s="262"/>
       <c r="G17" s="135" t="s">
         <v>214</v>
@@ -12810,8 +12810,8 @@
   </sheetPr>
   <dimension ref="A2:AW25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13053,16 +13053,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="242" t="s">
         <v>200</v>
       </c>
       <c r="G5" s="159"/>
@@ -13188,10 +13188,10 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
       <c r="E6" s="277"/>
-      <c r="F6" s="206"/>
+      <c r="F6" s="242"/>
       <c r="G6" s="12" t="s">
         <v>201</v>
       </c>
@@ -13208,18 +13208,18 @@
       <c r="N6" s="264">
         <v>5000</v>
       </c>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="190"/>
-      <c r="R6" s="190"/>
-      <c r="S6" s="190"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="254"/>
+      <c r="S6" s="254"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="190"/>
-      <c r="X6" s="190"/>
-      <c r="Y6" s="190"/>
-      <c r="Z6" s="190"/>
+      <c r="V6" s="254"/>
+      <c r="W6" s="254"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="254"/>
+      <c r="Z6" s="254"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -13247,10 +13247,10 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="277"/>
-      <c r="F7" s="206"/>
+      <c r="F7" s="242"/>
       <c r="G7" s="148" t="s">
         <v>192</v>
       </c>
@@ -13318,10 +13318,10 @@
     <row r="8" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="277"/>
-      <c r="F8" s="206"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="111" t="s">
         <v>204</v>
       </c>
@@ -13378,10 +13378,10 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="206"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="12" t="s">
         <v>190</v>
       </c>
@@ -13437,10 +13437,10 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="277"/>
-      <c r="F10" s="206"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="156" t="s">
         <v>221</v>
       </c>
@@ -13490,10 +13490,10 @@
     <row r="11" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
       <c r="E11" s="277"/>
-      <c r="F11" s="206"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="148" t="s">
         <v>227</v>
       </c>
@@ -13561,10 +13561,10 @@
     <row r="12" spans="1:49" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="277"/>
-      <c r="F12" s="206"/>
+      <c r="F12" s="242"/>
       <c r="G12" s="148" t="s">
         <v>229</v>
       </c>
@@ -13614,10 +13614,10 @@
     <row r="13" spans="1:49" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="277"/>
-      <c r="F13" s="206"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="148" t="s">
         <v>228</v>
       </c>
@@ -13681,10 +13681,10 @@
     <row r="14" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="277"/>
-      <c r="F14" s="206"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="148" t="s">
         <v>230</v>
       </c>
@@ -13748,10 +13748,10 @@
     <row r="15" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
       <c r="E15" s="277"/>
-      <c r="F15" s="206"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="148" t="s">
         <v>233</v>
       </c>
@@ -13817,10 +13817,10 @@
     <row r="16" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="277"/>
-      <c r="F16" s="206"/>
+      <c r="F16" s="242"/>
       <c r="G16" s="148" t="s">
         <v>231</v>
       </c>
@@ -13880,10 +13880,10 @@
     <row r="17" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="277"/>
-      <c r="F17" s="206"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="148" t="s">
         <v>232</v>
       </c>
@@ -13933,10 +13933,10 @@
     <row r="18" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="277"/>
-      <c r="F18" s="206"/>
+      <c r="F18" s="242"/>
       <c r="G18" s="148" t="s">
         <v>234</v>
       </c>
@@ -13986,10 +13986,10 @@
     <row r="19" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="206"/>
+      <c r="F19" s="242"/>
       <c r="G19" s="148" t="s">
         <v>235</v>
       </c>
@@ -14039,10 +14039,10 @@
     <row r="20" spans="1:49" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="259"/>
       <c r="B20" s="259"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="277"/>
-      <c r="F20" s="206"/>
+      <c r="F20" s="242"/>
       <c r="G20" s="148" t="s">
         <v>222</v>
       </c>
@@ -14102,10 +14102,10 @@
     <row r="21" spans="1:49" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="259"/>
       <c r="B21" s="259"/>
-      <c r="C21" s="240"/>
-      <c r="D21" s="240"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="277"/>
-      <c r="F21" s="206"/>
+      <c r="F21" s="242"/>
       <c r="G21" s="156" t="s">
         <v>223</v>
       </c>
@@ -14164,10 +14164,10 @@
     <row r="22" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="259"/>
       <c r="B22" s="259"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
       <c r="E22" s="277"/>
-      <c r="F22" s="206"/>
+      <c r="F22" s="242"/>
       <c r="G22" s="156" t="s">
         <v>224</v>
       </c>
@@ -14229,10 +14229,10 @@
     <row r="23" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="259"/>
       <c r="B23" s="259"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="240"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
       <c r="E23" s="277"/>
-      <c r="F23" s="206"/>
+      <c r="F23" s="242"/>
       <c r="G23" s="156" t="s">
         <v>225</v>
       </c>
@@ -14292,10 +14292,10 @@
     <row r="24" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="260"/>
       <c r="B24" s="260"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="277"/>
-      <c r="F24" s="206"/>
+      <c r="F24" s="242"/>
       <c r="G24" s="156" t="s">
         <v>226</v>
       </c>
@@ -14439,8 +14439,8 @@
   </sheetPr>
   <dimension ref="A2:AW17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14680,13 +14680,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="215" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="279" t="s">
@@ -14815,9 +14815,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="222"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -14876,9 +14876,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="222"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="263"/>
       <c r="G7" s="148" t="s">
         <v>239</v>
@@ -14947,9 +14947,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="222"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="263"/>
       <c r="G8" s="148" t="s">
         <v>240</v>
@@ -15012,9 +15012,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="222"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -15073,9 +15073,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="222"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -15132,9 +15132,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="222"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="262"/>
       <c r="G11" s="148" t="s">
         <v>189</v>
@@ -15199,9 +15199,9 @@
     <row r="12" spans="1:49" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="222"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="216"/>
       <c r="F12" s="262"/>
       <c r="G12" s="148" t="s">
         <v>245</v>
@@ -15268,9 +15268,9 @@
     <row r="13" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="222"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="216"/>
       <c r="F13" s="280"/>
       <c r="G13" s="148" t="s">
         <v>191</v>
@@ -15335,9 +15335,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="222"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="216"/>
       <c r="F14" s="280"/>
       <c r="G14" s="148" t="s">
         <v>241</v>
@@ -15404,9 +15404,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="222"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="216"/>
       <c r="F15" s="280"/>
       <c r="G15" s="148" t="s">
         <v>242</v>
@@ -15466,9 +15466,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="260"/>
       <c r="B16" s="260"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="223"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="217"/>
       <c r="F16" s="280"/>
       <c r="G16" s="148" t="s">
         <v>243</v>
@@ -15957,16 +15957,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="242" t="s">
         <v>280</v>
       </c>
       <c r="G5" s="159"/>
@@ -16170,10 +16170,10 @@
     <row r="6" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="206"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="242"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -16255,10 +16255,10 @@
     <row r="7" spans="1:75" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="206"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="242"/>
       <c r="G7" s="156" t="s">
         <v>221</v>
       </c>
@@ -16348,10 +16348,10 @@
     <row r="8" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="206"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="156" t="s">
         <v>264</v>
       </c>
@@ -16429,10 +16429,10 @@
     <row r="9" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="111" t="s">
         <v>269</v>
       </c>
@@ -16524,10 +16524,10 @@
     <row r="10" spans="1:75" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="111" t="s">
         <v>274</v>
       </c>
@@ -16635,10 +16635,10 @@
     <row r="11" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="206"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="111" t="s">
         <v>270</v>
       </c>
@@ -16734,10 +16734,10 @@
     <row r="12" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="206"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="242"/>
       <c r="G12" s="148" t="s">
         <v>271</v>
       </c>
@@ -16829,10 +16829,10 @@
     <row r="13" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="206"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="156" t="s">
         <v>265</v>
       </c>
@@ -16920,10 +16920,10 @@
     <row r="14" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="206"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="156" t="s">
         <v>267</v>
       </c>
@@ -17009,10 +17009,10 @@
     <row r="15" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="206"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="156" t="s">
         <v>268</v>
       </c>
@@ -17231,7 +17231,7 @@
   <dimension ref="A2:BI20"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17518,16 +17518,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="242" t="s">
         <v>247</v>
       </c>
       <c r="G5" s="159"/>
@@ -17689,10 +17689,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
       <c r="E6" s="225"/>
-      <c r="F6" s="206"/>
+      <c r="F6" s="242"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -17760,10 +17760,10 @@
     <row r="7" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="225"/>
-      <c r="F7" s="206"/>
+      <c r="F7" s="242"/>
       <c r="G7" s="148" t="s">
         <v>248</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>44015</v>
       </c>
       <c r="K7" s="150" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="157" t="s">
@@ -17839,10 +17839,10 @@
     <row r="8" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="225"/>
-      <c r="F8" s="206"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="148" t="s">
         <v>249</v>
       </c>
@@ -17918,10 +17918,10 @@
     <row r="9" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="225"/>
-      <c r="F9" s="206"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="148" t="s">
         <v>250</v>
       </c>
@@ -17987,10 +17987,10 @@
     <row r="10" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="225"/>
-      <c r="F10" s="206"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="148" t="s">
         <v>251</v>
       </c>
@@ -18056,10 +18056,10 @@
     <row r="11" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
       <c r="E11" s="225"/>
-      <c r="F11" s="206"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="148" t="s">
         <v>252</v>
       </c>
@@ -18133,10 +18133,10 @@
     <row r="12" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="225"/>
-      <c r="F12" s="206"/>
+      <c r="F12" s="242"/>
       <c r="G12" s="148" t="s">
         <v>253</v>
       </c>
@@ -18212,10 +18212,10 @@
     <row r="13" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="225"/>
-      <c r="F13" s="206"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="148" t="s">
         <v>254</v>
       </c>
@@ -18291,10 +18291,10 @@
     <row r="14" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="225"/>
-      <c r="F14" s="206"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="148" t="s">
         <v>255</v>
       </c>
@@ -18362,10 +18362,10 @@
     <row r="15" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
       <c r="E15" s="225"/>
-      <c r="F15" s="206"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="148" t="s">
         <v>256</v>
       </c>
@@ -18447,10 +18447,10 @@
     <row r="16" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="225"/>
-      <c r="F16" s="206"/>
+      <c r="F16" s="242"/>
       <c r="G16" s="148" t="s">
         <v>257</v>
       </c>
@@ -18516,10 +18516,10 @@
     <row r="17" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="225"/>
-      <c r="F17" s="206"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="148" t="s">
         <v>258</v>
       </c>
@@ -18599,10 +18599,10 @@
     <row r="18" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="225"/>
-      <c r="F18" s="206"/>
+      <c r="F18" s="242"/>
       <c r="G18" s="148" t="s">
         <v>259</v>
       </c>
@@ -18680,10 +18680,10 @@
     <row r="19" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="225"/>
-      <c r="F19" s="206"/>
+      <c r="F19" s="242"/>
       <c r="G19" s="156" t="s">
         <v>132</v>
       </c>
@@ -18835,6 +18835,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:AU3"/>
+    <mergeCell ref="AV3:BI3"/>
     <mergeCell ref="N6:N20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A5:A19"/>
@@ -18843,11 +18848,6 @@
     <mergeCell ref="D5:D19"/>
     <mergeCell ref="E5:E19"/>
     <mergeCell ref="F5:F19"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:AU3"/>
-    <mergeCell ref="AV3:BI3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
@@ -19123,13 +19123,13 @@
         <v>45082</v>
       </c>
       <c r="B4" s="258"/>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="239" t="s">
+      <c r="D4" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="215" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="279" t="s">
@@ -19273,9 +19273,9 @@
     <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
       <c r="B5" s="259"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="222"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="280"/>
       <c r="G5" s="112" t="s">
         <v>190</v>
@@ -19337,9 +19337,9 @@
     <row r="6" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="222"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="263"/>
       <c r="G6" s="156" t="s">
         <v>221</v>
@@ -19409,9 +19409,9 @@
     <row r="7" spans="1:54" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="222"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="263"/>
       <c r="G7" s="156" t="s">
         <v>287</v>
@@ -19481,9 +19481,9 @@
     <row r="8" spans="1:54" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="222"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="263"/>
       <c r="G8" s="156" t="s">
         <v>288</v>
@@ -19553,9 +19553,9 @@
     <row r="9" spans="1:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="222"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
       <c r="F9" s="263"/>
       <c r="G9" s="156" t="s">
         <v>289</v>
@@ -19611,9 +19611,9 @@
     <row r="10" spans="1:54" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="222"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="280"/>
       <c r="G10" s="161" t="s">
         <v>292</v>
@@ -19691,9 +19691,9 @@
     <row r="11" spans="1:54" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="222"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="280"/>
       <c r="G11" s="156" t="s">
         <v>290</v>
@@ -19763,9 +19763,9 @@
     <row r="12" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="222"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="216"/>
       <c r="F12" s="280"/>
       <c r="G12" s="156" t="s">
         <v>291</v>
@@ -20215,16 +20215,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="242" t="s">
         <v>294</v>
       </c>
       <c r="G5" s="159"/>
@@ -20386,10 +20386,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="206"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="242"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -20455,10 +20455,10 @@
     <row r="7" spans="1:61" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="206"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="242"/>
       <c r="G7" s="156" t="s">
         <v>295</v>
       </c>
@@ -20534,10 +20534,10 @@
     <row r="8" spans="1:61" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="206"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="156" t="s">
         <v>299</v>
       </c>
@@ -20613,10 +20613,10 @@
     <row r="9" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="178" t="s">
         <v>300</v>
       </c>
@@ -20690,10 +20690,10 @@
     <row r="10" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="206"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="178" t="s">
         <v>296</v>
       </c>
@@ -20755,10 +20755,10 @@
     <row r="11" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="206"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="182" t="s">
         <v>301</v>
       </c>
@@ -20832,10 +20832,10 @@
     <row r="12" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="206"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="242"/>
       <c r="G12" s="182" t="s">
         <v>302</v>
       </c>
@@ -20909,10 +20909,10 @@
     <row r="13" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="206"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="182" t="s">
         <v>307</v>
       </c>
@@ -20986,10 +20986,10 @@
     <row r="14" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="206"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="182" t="s">
         <v>303</v>
       </c>
@@ -21063,10 +21063,10 @@
     <row r="15" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="206"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="182" t="s">
         <v>306</v>
       </c>
@@ -21136,10 +21136,10 @@
     <row r="16" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="206"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="242"/>
       <c r="G16" s="178" t="s">
         <v>297</v>
       </c>
@@ -21213,10 +21213,10 @@
     <row r="17" spans="1:75" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="206"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="156" t="s">
         <v>311</v>
       </c>
@@ -21685,16 +21685,16 @@
         <v>45082</v>
       </c>
       <c r="B25" s="258"/>
-      <c r="C25" s="239" t="s">
+      <c r="C25" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="239" t="s">
+      <c r="D25" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="206" t="s">
+      <c r="F25" s="242" t="s">
         <v>305</v>
       </c>
       <c r="G25" s="175"/>
@@ -21892,10 +21892,10 @@
     <row r="26" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="259"/>
       <c r="B26" s="259"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="206"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="242"/>
       <c r="G26" s="12" t="s">
         <v>190</v>
       </c>
@@ -21971,10 +21971,10 @@
     <row r="27" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="259"/>
       <c r="B27" s="259"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="206"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="242"/>
       <c r="G27" s="182" t="s">
         <v>127</v>
       </c>
@@ -22060,10 +22060,10 @@
     <row r="28" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="259"/>
       <c r="B28" s="259"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="206"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="242"/>
       <c r="G28" s="182" t="s">
         <v>159</v>
       </c>
@@ -22151,10 +22151,10 @@
     <row r="29" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="259"/>
       <c r="B29" s="259"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="222"/>
-      <c r="F29" s="206"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="242"/>
       <c r="G29" s="182" t="s">
         <v>161</v>
       </c>
@@ -22318,6 +22318,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F5:F17"/>
+    <mergeCell ref="N6:N18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -22334,17 +22345,6 @@
     <mergeCell ref="C5:C17"/>
     <mergeCell ref="D5:D17"/>
     <mergeCell ref="E5:E17"/>
-    <mergeCell ref="F5:F17"/>
-    <mergeCell ref="N6:N18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>

--- a/2. Cronogramas_CS HUACCANA.xlsx
+++ b/2. Cronogramas_CS HUACCANA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0978E5-5DEB-4952-AC83-44AC54472897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE2FBB-18A7-4CF5-A58B-192E998111A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="6000" windowWidth="13800" windowHeight="9495" tabRatio="786" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="6000" windowWidth="13800" windowHeight="9495" tabRatio="786" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma- Gral-HUACCANA" sheetId="3" r:id="rId1"/>
@@ -2316,36 +2316,192 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,162 +2515,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2981,11 +2981,11 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="2:76" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="223"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="220"/>
       <c r="G2" s="228" t="s">
         <v>9</v>
       </c>
@@ -2997,69 +2997,69 @@
       <c r="M2" s="229"/>
       <c r="N2" s="229"/>
       <c r="O2" s="230"/>
-      <c r="P2" s="252" t="s">
+      <c r="P2" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="252"/>
-      <c r="AD2" s="252"/>
-      <c r="AE2" s="252"/>
-      <c r="AF2" s="252"/>
-      <c r="AG2" s="252"/>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="252"/>
-      <c r="AJ2" s="252"/>
-      <c r="AK2" s="252"/>
-      <c r="AL2" s="252"/>
-      <c r="AM2" s="252"/>
-      <c r="AN2" s="252"/>
-      <c r="AO2" s="252"/>
-      <c r="AP2" s="252"/>
-      <c r="AQ2" s="252"/>
-      <c r="AR2" s="252"/>
-      <c r="AS2" s="252"/>
-      <c r="AT2" s="252"/>
-      <c r="AU2" s="252"/>
-      <c r="AV2" s="252"/>
-      <c r="AW2" s="252"/>
-      <c r="AX2" s="252"/>
-      <c r="AY2" s="253"/>
-      <c r="AZ2" s="253"/>
-      <c r="BA2" s="253"/>
-      <c r="BB2" s="253"/>
-      <c r="BC2" s="253"/>
-      <c r="BD2" s="253"/>
-      <c r="BE2" s="253"/>
-      <c r="BF2" s="253"/>
-      <c r="BG2" s="253"/>
-      <c r="BH2" s="253"/>
-      <c r="BI2" s="253"/>
-      <c r="BJ2" s="253"/>
-      <c r="BK2" s="253"/>
-      <c r="BL2" s="253"/>
-      <c r="BM2" s="253"/>
-      <c r="BN2" s="253"/>
-      <c r="BO2" s="253"/>
-      <c r="BP2" s="253"/>
-      <c r="BQ2" s="253"/>
-      <c r="BR2" s="253"/>
-      <c r="BS2" s="253"/>
-      <c r="BT2" s="253"/>
-      <c r="BU2" s="253"/>
-      <c r="BV2" s="253"/>
-      <c r="BW2" s="253"/>
-      <c r="BX2" s="253"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="188"/>
+      <c r="AJ2" s="188"/>
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="188"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="189"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="189"/>
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="189"/>
+      <c r="BG2" s="189"/>
+      <c r="BH2" s="189"/>
+      <c r="BI2" s="189"/>
+      <c r="BJ2" s="189"/>
+      <c r="BK2" s="189"/>
+      <c r="BL2" s="189"/>
+      <c r="BM2" s="189"/>
+      <c r="BN2" s="189"/>
+      <c r="BO2" s="189"/>
+      <c r="BP2" s="189"/>
+      <c r="BQ2" s="189"/>
+      <c r="BR2" s="189"/>
+      <c r="BS2" s="189"/>
+      <c r="BT2" s="189"/>
+      <c r="BU2" s="189"/>
+      <c r="BV2" s="189"/>
+      <c r="BW2" s="189"/>
+      <c r="BX2" s="189"/>
     </row>
     <row r="3" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="107" t="s">
@@ -3492,18 +3492,18 @@
       </c>
     </row>
     <row r="5" spans="2:76" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="192" t="s">
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="210"/>
       <c r="J5" s="11">
         <v>43808</v>
       </c>
@@ -3512,74 +3512,74 @@
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
-      <c r="T5" s="250"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="201"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75"/>
-      <c r="W5" s="254"/>
-      <c r="X5" s="254"/>
-      <c r="Y5" s="254"/>
-      <c r="Z5" s="254"/>
-      <c r="AA5" s="254"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
       <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="254"/>
-      <c r="AH5" s="254"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
       <c r="AI5" s="75"/>
       <c r="AJ5" s="75"/>
-      <c r="AK5" s="254"/>
-      <c r="AL5" s="254"/>
-      <c r="AM5" s="254"/>
-      <c r="AN5" s="254"/>
-      <c r="AO5" s="254"/>
+      <c r="AK5" s="190"/>
+      <c r="AL5" s="190"/>
+      <c r="AM5" s="190"/>
+      <c r="AN5" s="190"/>
+      <c r="AO5" s="190"/>
       <c r="AP5" s="75"/>
       <c r="AQ5" s="75"/>
-      <c r="AR5" s="247"/>
-      <c r="AS5" s="247"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
+      <c r="AR5" s="191"/>
+      <c r="AS5" s="191"/>
+      <c r="AT5" s="191"/>
+      <c r="AU5" s="191"/>
+      <c r="AV5" s="191"/>
       <c r="AW5" s="75"/>
       <c r="AX5" s="75"/>
-      <c r="AY5" s="247"/>
-      <c r="AZ5" s="247"/>
-      <c r="BA5" s="247"/>
-      <c r="BB5" s="247"/>
-      <c r="BC5" s="247"/>
+      <c r="AY5" s="191"/>
+      <c r="AZ5" s="191"/>
+      <c r="BA5" s="191"/>
+      <c r="BB5" s="191"/>
+      <c r="BC5" s="191"/>
       <c r="BD5" s="75"/>
       <c r="BE5" s="75"/>
-      <c r="BF5" s="247"/>
-      <c r="BG5" s="247"/>
-      <c r="BH5" s="247"/>
-      <c r="BI5" s="247"/>
-      <c r="BJ5" s="247"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="191"/>
+      <c r="BH5" s="191"/>
+      <c r="BI5" s="191"/>
+      <c r="BJ5" s="191"/>
       <c r="BK5" s="75"/>
       <c r="BL5" s="75"/>
-      <c r="BM5" s="247"/>
-      <c r="BN5" s="247"/>
-      <c r="BO5" s="247"/>
-      <c r="BP5" s="247"/>
-      <c r="BQ5" s="247"/>
+      <c r="BM5" s="191"/>
+      <c r="BN5" s="191"/>
+      <c r="BO5" s="191"/>
+      <c r="BP5" s="191"/>
+      <c r="BQ5" s="191"/>
       <c r="BR5" s="75"/>
       <c r="BS5" s="75"/>
-      <c r="BT5" s="247"/>
-      <c r="BU5" s="247"/>
-      <c r="BV5" s="247"/>
-      <c r="BW5" s="247"/>
-      <c r="BX5" s="247"/>
+      <c r="BT5" s="191"/>
+      <c r="BU5" s="191"/>
+      <c r="BV5" s="191"/>
+      <c r="BW5" s="191"/>
+      <c r="BX5" s="191"/>
     </row>
     <row r="6" spans="2:76" ht="39" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="215">
+      <c r="B6" s="221">
         <v>45082</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="209" t="s">
+      <c r="C6" s="221"/>
+      <c r="D6" s="239" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="224" t="s">
@@ -3597,20 +3597,20 @@
       <c r="I6" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="231">
+      <c r="J6" s="195">
         <v>43808</v>
       </c>
-      <c r="K6" s="231">
+      <c r="K6" s="195">
         <v>43815</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="233">
+      <c r="M6" s="231">
         <v>1</v>
       </c>
       <c r="N6" s="87"/>
-      <c r="O6" s="235">
+      <c r="O6" s="233">
         <v>34000</v>
       </c>
       <c r="P6" s="66"/>
@@ -3676,9 +3676,9 @@
       <c r="BX6" s="66"/>
     </row>
     <row r="7" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="210"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="224"/>
       <c r="F7" s="80" t="s">
         <v>31</v>
@@ -3686,12 +3686,12 @@
       <c r="G7" s="225"/>
       <c r="H7" s="226"/>
       <c r="I7" s="227"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="234"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="232"/>
       <c r="N7" s="83"/>
-      <c r="O7" s="236"/>
+      <c r="O7" s="234"/>
       <c r="P7" s="66"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
@@ -3755,14 +3755,14 @@
       <c r="BX7" s="67"/>
     </row>
     <row r="8" spans="2:76" s="16" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="210"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="224"/>
       <c r="F8" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="242" t="s">
+      <c r="G8" s="206" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="80" t="s">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="83"/>
-      <c r="O8" s="236"/>
+      <c r="O8" s="234"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
@@ -3848,14 +3848,14 @@
       <c r="BX8" s="67"/>
     </row>
     <row r="9" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="210"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="224"/>
       <c r="F9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="242"/>
+      <c r="G9" s="206"/>
       <c r="H9" s="88" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="84"/>
-      <c r="O9" s="236"/>
+      <c r="O9" s="234"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
@@ -3939,14 +3939,14 @@
       <c r="BX9" s="67"/>
     </row>
     <row r="10" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="210"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="224"/>
       <c r="F10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="242"/>
+      <c r="G10" s="206"/>
       <c r="H10" s="88" t="s">
         <v>40</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
-      <c r="O10" s="236"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="66"/>
@@ -4028,14 +4028,14 @@
       <c r="BX10" s="67"/>
     </row>
     <row r="11" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="210"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="224"/>
       <c r="F11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="242"/>
+      <c r="G11" s="206"/>
       <c r="H11" s="19" t="s">
         <v>44</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="84"/>
-      <c r="O11" s="236"/>
+      <c r="O11" s="234"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="66"/>
@@ -4119,14 +4119,14 @@
       <c r="BX11" s="67"/>
     </row>
     <row r="12" spans="2:76" s="16" customFormat="1" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="210"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="224"/>
       <c r="F12" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="242"/>
+      <c r="G12" s="206"/>
       <c r="H12" s="88" t="s">
         <v>47</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="24"/>
-      <c r="O12" s="236"/>
+      <c r="O12" s="234"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
@@ -4210,14 +4210,14 @@
       <c r="BX12" s="67"/>
     </row>
     <row r="13" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="210"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="224"/>
       <c r="F13" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="242"/>
+      <c r="G13" s="206"/>
       <c r="H13" s="88" t="s">
         <v>50</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="24"/>
-      <c r="O13" s="236"/>
+      <c r="O13" s="234"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
@@ -4301,14 +4301,14 @@
       <c r="BX13" s="67"/>
     </row>
     <row r="14" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="210"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="224"/>
       <c r="F14" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="242"/>
+      <c r="G14" s="206"/>
       <c r="H14" s="88" t="s">
         <v>51</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0.9</v>
       </c>
       <c r="N14" s="84"/>
-      <c r="O14" s="236"/>
+      <c r="O14" s="234"/>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
       <c r="R14" s="66"/>
@@ -4392,14 +4392,14 @@
       <c r="BX14" s="67"/>
     </row>
     <row r="15" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="216"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="210"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="224"/>
       <c r="F15" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="242"/>
+      <c r="G15" s="206"/>
       <c r="H15" s="88" t="s">
         <v>52</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="24"/>
-      <c r="O15" s="236"/>
+      <c r="O15" s="234"/>
       <c r="P15" s="66"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="66"/>
@@ -4483,14 +4483,14 @@
       <c r="BX15" s="67"/>
     </row>
     <row r="16" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="216"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="210"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="224"/>
       <c r="F16" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="242"/>
+      <c r="G16" s="206"/>
       <c r="H16" s="88" t="s">
         <v>56</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="N16" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="236"/>
+      <c r="O16" s="234"/>
       <c r="P16" s="66"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="66"/>
@@ -4576,14 +4576,14 @@
       <c r="BX16" s="67"/>
     </row>
     <row r="17" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="216"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="210"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="224"/>
       <c r="F17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="242"/>
+      <c r="G17" s="206"/>
       <c r="H17" s="88" t="s">
         <v>59</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="84"/>
-      <c r="O17" s="236"/>
+      <c r="O17" s="234"/>
       <c r="P17" s="66"/>
       <c r="Q17" s="66"/>
       <c r="R17" s="66"/>
@@ -4667,14 +4667,14 @@
       <c r="BX17" s="67"/>
     </row>
     <row r="18" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="210"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="224"/>
       <c r="F18" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="242"/>
+      <c r="G18" s="206"/>
       <c r="H18" s="26" t="s">
         <v>62</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="83"/>
-      <c r="O18" s="236"/>
+      <c r="O18" s="234"/>
       <c r="P18" s="66"/>
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
@@ -4756,24 +4756,24 @@
       <c r="BX18" s="67"/>
     </row>
     <row r="19" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="210"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="224"/>
       <c r="F19" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="242"/>
-      <c r="H19" s="243" t="s">
+      <c r="G19" s="206"/>
+      <c r="H19" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="241"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="251"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="80"/>
       <c r="N19" s="83"/>
-      <c r="O19" s="236"/>
+      <c r="O19" s="234"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="66"/>
       <c r="R19" s="66"/>
@@ -4837,22 +4837,22 @@
       <c r="BX19" s="67"/>
     </row>
     <row r="20" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="216"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="210"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="224"/>
       <c r="F20" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="242"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="244"/>
-      <c r="L20" s="251"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="80"/>
       <c r="N20" s="83"/>
-      <c r="O20" s="236"/>
+      <c r="O20" s="234"/>
       <c r="P20" s="66"/>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
@@ -4916,22 +4916,22 @@
       <c r="BX20" s="67"/>
     </row>
     <row r="21" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="210"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="224"/>
       <c r="F21" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="242"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="244"/>
-      <c r="L21" s="251"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="80"/>
       <c r="N21" s="83"/>
-      <c r="O21" s="236"/>
+      <c r="O21" s="234"/>
       <c r="P21" s="66"/>
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
@@ -4995,22 +4995,22 @@
       <c r="BX21" s="67"/>
     </row>
     <row r="22" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="210"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="224"/>
       <c r="F22" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="242"/>
-      <c r="H22" s="243"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="244"/>
-      <c r="K22" s="244"/>
-      <c r="L22" s="251"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="83"/>
       <c r="N22" s="83"/>
-      <c r="O22" s="236"/>
+      <c r="O22" s="234"/>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
@@ -5074,14 +5074,14 @@
       <c r="BX22" s="67"/>
     </row>
     <row r="23" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="210"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="224"/>
       <c r="F23" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="242"/>
+      <c r="G23" s="206"/>
       <c r="H23" s="88" t="s">
         <v>70</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="83"/>
-      <c r="O23" s="236"/>
+      <c r="O23" s="234"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
       <c r="R23" s="66"/>
@@ -5165,14 +5165,14 @@
       <c r="BX23" s="67"/>
     </row>
     <row r="24" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="210"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="224"/>
       <c r="F24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="242"/>
+      <c r="G24" s="206"/>
       <c r="H24" s="88"/>
       <c r="I24" s="82"/>
       <c r="J24" s="17"/>
@@ -5180,7 +5180,7 @@
       <c r="L24" s="83"/>
       <c r="M24" s="84"/>
       <c r="N24" s="83"/>
-      <c r="O24" s="236"/>
+      <c r="O24" s="234"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="66"/>
       <c r="R24" s="66"/>
@@ -5244,14 +5244,14 @@
       <c r="BX24" s="67"/>
     </row>
     <row r="25" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="216"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="210"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="240"/>
       <c r="E25" s="224"/>
       <c r="F25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="242"/>
+      <c r="G25" s="206"/>
       <c r="H25" s="26" t="s">
         <v>75</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="N25" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="236"/>
+      <c r="O25" s="234"/>
       <c r="P25" s="66"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="66"/>
@@ -5335,12 +5335,12 @@
       <c r="BX25" s="67"/>
     </row>
     <row r="26" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="210"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="240"/>
       <c r="E26" s="224"/>
       <c r="F26" s="80"/>
-      <c r="G26" s="242"/>
+      <c r="G26" s="206"/>
       <c r="H26" s="88" t="s">
         <v>78</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0.7</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="236"/>
+      <c r="O26" s="234"/>
       <c r="P26" s="92"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="92"/>
@@ -5424,12 +5424,12 @@
       <c r="BX26" s="67"/>
     </row>
     <row r="27" spans="2:76" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="210"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="240"/>
       <c r="E27" s="224"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="242"/>
+      <c r="G27" s="206"/>
       <c r="H27" s="31" t="s">
         <v>79</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="N27" s="187">
         <v>44012</v>
       </c>
-      <c r="O27" s="236"/>
+      <c r="O27" s="234"/>
       <c r="P27" s="66"/>
       <c r="Q27" s="66"/>
       <c r="R27" s="66"/>
@@ -5515,32 +5515,32 @@
       <c r="BX27" s="67"/>
     </row>
     <row r="28" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="210"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="240"/>
       <c r="E28" s="224"/>
       <c r="F28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="242"/>
+      <c r="G28" s="206"/>
       <c r="H28" s="226" t="s">
         <v>82</v>
       </c>
       <c r="I28" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="238">
+      <c r="J28" s="203">
         <v>43998</v>
       </c>
-      <c r="K28" s="238">
+      <c r="K28" s="203">
         <v>43998</v>
       </c>
-      <c r="L28" s="232" t="s">
+      <c r="L28" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="245"/>
+      <c r="M28" s="193"/>
       <c r="N28" s="87"/>
-      <c r="O28" s="236"/>
+      <c r="O28" s="234"/>
       <c r="P28" s="66"/>
       <c r="Q28" s="66"/>
       <c r="R28" s="66"/>
@@ -5604,22 +5604,22 @@
       <c r="BX28" s="67"/>
     </row>
     <row r="29" spans="2:76" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="211"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="224"/>
       <c r="F29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="242"/>
+      <c r="G29" s="206"/>
       <c r="H29" s="226"/>
       <c r="I29" s="227"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="246"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="194"/>
       <c r="N29" s="87"/>
-      <c r="O29" s="237"/>
+      <c r="O29" s="235"/>
       <c r="P29" s="66"/>
       <c r="Q29" s="66"/>
       <c r="R29" s="66"/>
@@ -5987,18 +5987,18 @@
       </c>
     </row>
     <row r="32" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="192" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="193"/>
-      <c r="I32" s="194"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="210"/>
       <c r="J32" s="28">
         <v>43987</v>
       </c>
@@ -6192,20 +6192,20 @@
       </c>
     </row>
     <row r="33" spans="2:76" s="16" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="218">
+      <c r="B33" s="245">
         <v>45082</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="212" t="s">
+      <c r="C33" s="245"/>
+      <c r="D33" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="208" t="s">
+      <c r="E33" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="204" t="s">
+      <c r="G33" s="213" t="s">
         <v>88</v>
       </c>
       <c r="H33" s="88" t="s">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="30"/>
-      <c r="O33" s="195">
+      <c r="O33" s="196">
         <v>85000</v>
       </c>
       <c r="P33" s="66"/>
@@ -6293,14 +6293,14 @@
       <c r="BX33" s="67"/>
     </row>
     <row r="34" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="219"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="208"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="212"/>
       <c r="F34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="204"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="88" t="s">
         <v>91</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="196"/>
+      <c r="O34" s="197"/>
       <c r="P34" s="66"/>
       <c r="Q34" s="66"/>
       <c r="R34" s="66"/>
@@ -6384,14 +6384,14 @@
       <c r="BX34" s="67"/>
     </row>
     <row r="35" spans="2:76" s="16" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="208"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="204"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="26" t="s">
         <v>93</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="N35" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="O35" s="196"/>
+      <c r="O35" s="197"/>
       <c r="P35" s="92"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="92"/>
@@ -6477,14 +6477,14 @@
       <c r="BX35" s="67"/>
     </row>
     <row r="36" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="208"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="212"/>
       <c r="F36" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="204"/>
+      <c r="G36" s="213"/>
       <c r="H36" s="186" t="s">
         <v>95</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="61"/>
-      <c r="O36" s="196"/>
+      <c r="O36" s="197"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
@@ -6568,12 +6568,12 @@
       <c r="BX36" s="67"/>
     </row>
     <row r="37" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="208"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="212"/>
       <c r="F37" s="80"/>
-      <c r="G37" s="204"/>
+      <c r="G37" s="213"/>
       <c r="H37" s="186" t="s">
         <v>96</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="61"/>
-      <c r="O37" s="196"/>
+      <c r="O37" s="197"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
@@ -6657,12 +6657,12 @@
       <c r="BX37" s="67"/>
     </row>
     <row r="38" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="208"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="80"/>
-      <c r="G38" s="204"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="43" t="s">
         <v>97</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="M38" s="47"/>
       <c r="N38" s="46"/>
-      <c r="O38" s="196"/>
+      <c r="O38" s="197"/>
       <c r="P38" s="66"/>
       <c r="Q38" s="66"/>
       <c r="R38" s="66"/>
@@ -6744,14 +6744,14 @@
       <c r="BX38" s="67"/>
     </row>
     <row r="39" spans="2:76" s="16" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="208"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="212"/>
       <c r="F39" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="204"/>
+      <c r="G39" s="213"/>
       <c r="H39" s="88" t="s">
         <v>101</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="83"/>
-      <c r="O39" s="196"/>
+      <c r="O39" s="197"/>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
@@ -6835,14 +6835,14 @@
       <c r="BX39" s="67"/>
     </row>
     <row r="40" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208" t="s">
+      <c r="B40" s="246"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="243"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="204"/>
+      <c r="G40" s="213"/>
       <c r="H40" s="26" t="s">
         <v>103</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="N40" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="O40" s="196"/>
+      <c r="O40" s="197"/>
       <c r="P40" s="66"/>
       <c r="Q40" s="66"/>
       <c r="R40" s="66"/>
@@ -6926,12 +6926,12 @@
       <c r="BX40" s="67"/>
     </row>
     <row r="41" spans="2:76" s="16" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="204"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="213"/>
       <c r="H41" s="88" t="s">
         <v>105</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="N41" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="O41" s="196"/>
+      <c r="O41" s="197"/>
       <c r="P41" s="92"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="92"/>
@@ -7017,12 +7017,12 @@
       <c r="BX41" s="67"/>
     </row>
     <row r="42" spans="2:76" s="16" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="204"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="213"/>
       <c r="H42" s="88" t="s">
         <v>106</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="30"/>
-      <c r="O42" s="196"/>
+      <c r="O42" s="197"/>
       <c r="P42" s="66"/>
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
@@ -7106,12 +7106,12 @@
       <c r="BX42" s="67"/>
     </row>
     <row r="43" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="208"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="204"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="243"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
       <c r="H43" s="88" t="s">
         <v>108</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="30"/>
-      <c r="O43" s="196"/>
+      <c r="O43" s="197"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
@@ -7195,12 +7195,12 @@
       <c r="BX43" s="67"/>
     </row>
     <row r="44" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="204"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="243"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="213"/>
       <c r="H44" s="88" t="s">
         <v>109</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="N44" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O44" s="196"/>
+      <c r="O44" s="197"/>
       <c r="P44" s="66"/>
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
@@ -7284,12 +7284,12 @@
       <c r="BX44" s="67"/>
     </row>
     <row r="45" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="204"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="243"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="88" t="s">
         <v>111</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="N45" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O45" s="196"/>
+      <c r="O45" s="197"/>
       <c r="P45" s="66"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
@@ -7373,12 +7373,12 @@
       <c r="BX45" s="67"/>
     </row>
     <row r="46" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="219"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="204"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="213"/>
       <c r="H46" s="88" t="s">
         <v>113</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="N46" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O46" s="196"/>
+      <c r="O46" s="197"/>
       <c r="P46" s="66"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
@@ -7462,12 +7462,12 @@
       <c r="BX46" s="67"/>
     </row>
     <row r="47" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="219"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="204"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="243"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="213"/>
       <c r="H47" s="88" t="s">
         <v>114</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="N47" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O47" s="196"/>
+      <c r="O47" s="197"/>
       <c r="P47" s="66"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
@@ -7551,12 +7551,12 @@
       <c r="BX47" s="67"/>
     </row>
     <row r="48" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="219"/>
-      <c r="C48" s="219"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="208"/>
-      <c r="F48" s="208"/>
-      <c r="G48" s="204"/>
+      <c r="B48" s="246"/>
+      <c r="C48" s="246"/>
+      <c r="D48" s="243"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="213"/>
       <c r="H48" s="88" t="s">
         <v>115</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="N48" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="196"/>
+      <c r="O48" s="197"/>
       <c r="P48" s="66"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
@@ -7640,12 +7640,12 @@
       <c r="BX48" s="67"/>
     </row>
     <row r="49" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="219"/>
-      <c r="C49" s="219"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="204"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="243"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="213"/>
       <c r="H49" s="88" t="s">
         <v>117</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="N49" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O49" s="196"/>
+      <c r="O49" s="197"/>
       <c r="P49" s="66"/>
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
@@ -7729,12 +7729,12 @@
       <c r="BX49" s="67"/>
     </row>
     <row r="50" spans="2:76" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="219"/>
-      <c r="C50" s="219"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="204"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="243"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="213"/>
       <c r="H50" s="43" t="s">
         <v>119</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="M50" s="47"/>
       <c r="N50" s="48"/>
-      <c r="O50" s="196"/>
+      <c r="O50" s="197"/>
       <c r="P50" s="66"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
@@ -7816,14 +7816,14 @@
       <c r="BX50" s="67"/>
     </row>
     <row r="51" spans="2:76" s="16" customFormat="1" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="208"/>
+      <c r="B51" s="247"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="212"/>
       <c r="F51" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="G51" s="204"/>
+      <c r="G51" s="213"/>
       <c r="H51" s="88" t="s">
         <v>122</v>
       </c>
@@ -7843,7 +7843,7 @@
       <c r="N51" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="O51" s="197"/>
+      <c r="O51" s="198"/>
       <c r="P51" s="66"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
@@ -8211,18 +8211,18 @@
       </c>
     </row>
     <row r="54" spans="2:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="192" t="s">
+      <c r="B54" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="192" t="s">
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="210"/>
+      <c r="G54" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="193"/>
-      <c r="I54" s="194"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="210"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="12"/>
@@ -8414,20 +8414,20 @@
       </c>
     </row>
     <row r="55" spans="2:76" s="16" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="205">
+      <c r="B55" s="236">
         <v>45082</v>
       </c>
-      <c r="C55" s="205"/>
-      <c r="D55" s="212" t="s">
+      <c r="C55" s="236"/>
+      <c r="D55" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="208" t="s">
+      <c r="E55" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="204" t="s">
+      <c r="G55" s="213" t="s">
         <v>88</v>
       </c>
       <c r="H55" s="88" t="s">
@@ -8439,7 +8439,7 @@
       <c r="L55" s="185"/>
       <c r="M55" s="81"/>
       <c r="N55" s="83"/>
-      <c r="O55" s="195">
+      <c r="O55" s="196">
         <v>34000</v>
       </c>
       <c r="P55" s="66"/>
@@ -8505,14 +8505,14 @@
       <c r="BX55" s="67"/>
     </row>
     <row r="56" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="206"/>
-      <c r="C56" s="206"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="208"/>
+      <c r="B56" s="237"/>
+      <c r="C56" s="237"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="212"/>
       <c r="F56" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="204"/>
+      <c r="G56" s="213"/>
       <c r="H56" s="88" t="s">
         <v>127</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="83"/>
-      <c r="O56" s="196"/>
+      <c r="O56" s="197"/>
       <c r="P56" s="66"/>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
@@ -8596,14 +8596,14 @@
       <c r="BX56" s="67"/>
     </row>
     <row r="57" spans="2:76" s="16" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="206"/>
-      <c r="C57" s="206"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="208"/>
-      <c r="F57" s="203" t="s">
+      <c r="B57" s="237"/>
+      <c r="C57" s="237"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="212"/>
+      <c r="F57" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="204"/>
+      <c r="G57" s="213"/>
       <c r="H57" s="26" t="s">
         <v>129</v>
       </c>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="M57" s="25"/>
       <c r="N57" s="83"/>
-      <c r="O57" s="196"/>
+      <c r="O57" s="197"/>
       <c r="P57" s="66"/>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
@@ -8685,12 +8685,12 @@
       <c r="BX57" s="67"/>
     </row>
     <row r="58" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="206"/>
-      <c r="C58" s="206"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="208"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="204"/>
+      <c r="B58" s="237"/>
+      <c r="C58" s="237"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="213"/>
       <c r="H58" s="26" t="s">
         <v>130</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="83"/>
-      <c r="O58" s="196"/>
+      <c r="O58" s="197"/>
       <c r="P58" s="66"/>
       <c r="Q58" s="66"/>
       <c r="R58" s="66"/>
@@ -8772,14 +8772,14 @@
       <c r="BX58" s="67"/>
     </row>
     <row r="59" spans="2:76" s="16" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="206"/>
-      <c r="C59" s="206"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="208"/>
+      <c r="B59" s="237"/>
+      <c r="C59" s="237"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="212"/>
       <c r="F59" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="204"/>
+      <c r="G59" s="213"/>
       <c r="H59" s="88" t="s">
         <v>132</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>0.6</v>
       </c>
       <c r="N59" s="83"/>
-      <c r="O59" s="196"/>
+      <c r="O59" s="197"/>
       <c r="P59" s="66"/>
       <c r="Q59" s="66"/>
       <c r="R59" s="66"/>
@@ -8863,32 +8863,32 @@
       <c r="BX59" s="67"/>
     </row>
     <row r="60" spans="2:76" s="16" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="206"/>
-      <c r="C60" s="206"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="208"/>
-      <c r="F60" s="203" t="s">
+      <c r="B60" s="237"/>
+      <c r="C60" s="237"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="212"/>
+      <c r="F60" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="204"/>
+      <c r="G60" s="213"/>
       <c r="H60" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="240" t="s">
+      <c r="I60" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="198">
+      <c r="J60" s="250">
         <v>44027</v>
       </c>
-      <c r="K60" s="198">
+      <c r="K60" s="250">
         <v>44033</v>
       </c>
-      <c r="L60" s="201" t="s">
+      <c r="L60" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="M60" s="202"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="196"/>
+      <c r="M60" s="254"/>
+      <c r="N60" s="216"/>
+      <c r="O60" s="197"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="66"/>
       <c r="R60" s="66"/>
@@ -8952,22 +8952,22 @@
       <c r="BX60" s="67"/>
     </row>
     <row r="61" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="206"/>
-      <c r="C61" s="206"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="204"/>
+      <c r="B61" s="237"/>
+      <c r="C61" s="237"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="212"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="213"/>
       <c r="H61" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="240"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="202"/>
-      <c r="N61" s="203"/>
-      <c r="O61" s="196"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="251"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="254"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="197"/>
       <c r="P61" s="66"/>
       <c r="Q61" s="66"/>
       <c r="R61" s="66"/>
@@ -9031,22 +9031,22 @@
       <c r="BX61" s="67"/>
     </row>
     <row r="62" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="206"/>
-      <c r="C62" s="206"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="204"/>
+      <c r="B62" s="237"/>
+      <c r="C62" s="237"/>
+      <c r="D62" s="243"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="213"/>
       <c r="H62" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="I62" s="240"/>
-      <c r="J62" s="199"/>
-      <c r="K62" s="199"/>
-      <c r="L62" s="201"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="203"/>
-      <c r="O62" s="196"/>
+      <c r="I62" s="217"/>
+      <c r="J62" s="251"/>
+      <c r="K62" s="251"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="254"/>
+      <c r="N62" s="216"/>
+      <c r="O62" s="197"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="66"/>
       <c r="R62" s="66"/>
@@ -9110,22 +9110,22 @@
       <c r="BX62" s="67"/>
     </row>
     <row r="63" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="206"/>
-      <c r="C63" s="206"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="204"/>
+      <c r="B63" s="237"/>
+      <c r="C63" s="237"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="212"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="213"/>
       <c r="H63" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="I63" s="240"/>
-      <c r="J63" s="199"/>
-      <c r="K63" s="199"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="203"/>
-      <c r="O63" s="196"/>
+      <c r="I63" s="217"/>
+      <c r="J63" s="251"/>
+      <c r="K63" s="251"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="254"/>
+      <c r="N63" s="216"/>
+      <c r="O63" s="197"/>
       <c r="P63" s="66"/>
       <c r="Q63" s="66"/>
       <c r="R63" s="66"/>
@@ -9189,22 +9189,22 @@
       <c r="BX63" s="67"/>
     </row>
     <row r="64" spans="2:76" s="16" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="206"/>
-      <c r="C64" s="206"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="208"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="204"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="237"/>
+      <c r="D64" s="243"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="213"/>
       <c r="H64" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="240"/>
-      <c r="J64" s="200"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="201"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="203"/>
-      <c r="O64" s="196"/>
+      <c r="I64" s="217"/>
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="253"/>
+      <c r="M64" s="254"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="197"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="66"/>
       <c r="R64" s="66"/>
@@ -9268,12 +9268,12 @@
       <c r="BX64" s="67"/>
     </row>
     <row r="65" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="206"/>
-      <c r="C65" s="206"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="208"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="204"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="243"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="213"/>
       <c r="H65" s="88" t="s">
         <v>141</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="M65" s="84"/>
       <c r="N65" s="81"/>
-      <c r="O65" s="196"/>
+      <c r="O65" s="197"/>
       <c r="P65" s="66"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
@@ -9355,12 +9355,12 @@
       <c r="BX65" s="67"/>
     </row>
     <row r="66" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="206"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="208"/>
-      <c r="F66" s="203"/>
-      <c r="G66" s="204"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="243"/>
+      <c r="E66" s="212"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="213"/>
       <c r="H66" s="88" t="s">
         <v>142</v>
       </c>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="M66" s="84"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="196"/>
+      <c r="O66" s="197"/>
       <c r="P66" s="66"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
@@ -9442,12 +9442,12 @@
       <c r="BX66" s="67"/>
     </row>
     <row r="67" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="206"/>
-      <c r="C67" s="206"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="208"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="204"/>
+      <c r="B67" s="237"/>
+      <c r="C67" s="237"/>
+      <c r="D67" s="243"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="213"/>
       <c r="H67" s="88" t="s">
         <v>143</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="M67" s="84"/>
       <c r="N67" s="80"/>
-      <c r="O67" s="196"/>
+      <c r="O67" s="197"/>
       <c r="P67" s="66"/>
       <c r="Q67" s="66"/>
       <c r="R67" s="66"/>
@@ -9529,12 +9529,12 @@
       <c r="BX67" s="67"/>
     </row>
     <row r="68" spans="2:76" s="16" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="206"/>
-      <c r="C68" s="206"/>
-      <c r="D68" s="213"/>
-      <c r="E68" s="208"/>
-      <c r="F68" s="203"/>
-      <c r="G68" s="204"/>
+      <c r="B68" s="237"/>
+      <c r="C68" s="237"/>
+      <c r="D68" s="243"/>
+      <c r="E68" s="212"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="213"/>
       <c r="H68" s="88" t="s">
         <v>144</v>
       </c>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="M68" s="84"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="196"/>
+      <c r="O68" s="197"/>
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="66"/>
@@ -9616,12 +9616,12 @@
       <c r="BX68" s="67"/>
     </row>
     <row r="69" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="206"/>
-      <c r="C69" s="206"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="208"/>
+      <c r="B69" s="237"/>
+      <c r="C69" s="237"/>
+      <c r="D69" s="243"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="83"/>
-      <c r="G69" s="204"/>
+      <c r="G69" s="213"/>
       <c r="H69" s="88" t="s">
         <v>145</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="N69" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="O69" s="196"/>
+      <c r="O69" s="197"/>
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="66"/>
@@ -9705,14 +9705,14 @@
       <c r="BX69" s="67"/>
     </row>
     <row r="70" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="206"/>
-      <c r="C70" s="206"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="208"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="237"/>
+      <c r="D70" s="243"/>
+      <c r="E70" s="212"/>
       <c r="F70" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="204"/>
+      <c r="G70" s="213"/>
       <c r="H70" s="88" t="s">
         <v>148</v>
       </c>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="M70" s="84"/>
       <c r="N70" s="83"/>
-      <c r="O70" s="196"/>
+      <c r="O70" s="197"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="66"/>
       <c r="R70" s="66"/>
@@ -9794,14 +9794,14 @@
       <c r="BX70" s="67"/>
     </row>
     <row r="71" spans="2:76" s="16" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="206"/>
-      <c r="C71" s="206"/>
-      <c r="D71" s="213"/>
-      <c r="E71" s="208"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="237"/>
+      <c r="D71" s="243"/>
+      <c r="E71" s="212"/>
       <c r="F71" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="204"/>
+      <c r="G71" s="213"/>
       <c r="H71" s="88"/>
       <c r="I71" s="82"/>
       <c r="J71" s="89"/>
@@ -9809,7 +9809,7 @@
       <c r="L71" s="83"/>
       <c r="M71" s="84"/>
       <c r="N71" s="83"/>
-      <c r="O71" s="196"/>
+      <c r="O71" s="197"/>
       <c r="P71" s="66"/>
       <c r="Q71" s="66"/>
       <c r="R71" s="66"/>
@@ -9873,24 +9873,24 @@
       <c r="BX71" s="67"/>
     </row>
     <row r="72" spans="2:76" s="16" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="206"/>
-      <c r="C72" s="206"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="208"/>
+      <c r="B72" s="237"/>
+      <c r="C72" s="237"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="212"/>
       <c r="F72" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="204"/>
+      <c r="G72" s="213"/>
       <c r="H72" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="241" t="s">
+      <c r="I72" s="211" t="s">
         <v>153</v>
       </c>
-      <c r="J72" s="190">
+      <c r="J72" s="214">
         <v>44034</v>
       </c>
-      <c r="K72" s="190">
+      <c r="K72" s="214">
         <v>44036</v>
       </c>
       <c r="L72" s="83" t="s">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="83"/>
-      <c r="O72" s="196"/>
+      <c r="O72" s="197"/>
       <c r="P72" s="66"/>
       <c r="Q72" s="66"/>
       <c r="R72" s="66"/>
@@ -9962,26 +9962,26 @@
       <c r="BX72" s="67"/>
     </row>
     <row r="73" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="207"/>
-      <c r="C73" s="207"/>
-      <c r="D73" s="214"/>
-      <c r="E73" s="208"/>
+      <c r="B73" s="238"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="244"/>
+      <c r="E73" s="212"/>
       <c r="F73" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="204"/>
+      <c r="G73" s="213"/>
       <c r="H73" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="241"/>
-      <c r="J73" s="191"/>
-      <c r="K73" s="191"/>
+      <c r="I73" s="211"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
       <c r="L73" s="83" t="s">
         <v>156</v>
       </c>
       <c r="M73" s="84"/>
       <c r="N73" s="83"/>
-      <c r="O73" s="197"/>
+      <c r="O73" s="198"/>
       <c r="P73" s="68"/>
       <c r="Q73" s="68"/>
       <c r="R73" s="68"/>
@@ -10360,11 +10360,11 @@
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="192" t="s">
+      <c r="G76" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="193"/>
-      <c r="I76" s="194"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="210"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="12"/>
@@ -10556,20 +10556,20 @@
       </c>
     </row>
     <row r="77" spans="2:76" s="16" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="205">
+      <c r="B77" s="236">
         <v>45082</v>
       </c>
-      <c r="C77" s="205"/>
-      <c r="D77" s="212" t="s">
+      <c r="C77" s="236"/>
+      <c r="D77" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="208" t="s">
+      <c r="E77" s="212" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G77" s="204" t="s">
+      <c r="G77" s="213" t="s">
         <v>158</v>
       </c>
       <c r="H77" s="88" t="s">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="M77" s="84"/>
       <c r="N77" s="83"/>
-      <c r="O77" s="195">
+      <c r="O77" s="196">
         <v>17000</v>
       </c>
       <c r="P77" s="69"/>
@@ -10655,14 +10655,14 @@
       <c r="BX77" s="68"/>
     </row>
     <row r="78" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="206"/>
-      <c r="C78" s="206"/>
-      <c r="D78" s="213"/>
-      <c r="E78" s="208"/>
+      <c r="B78" s="237"/>
+      <c r="C78" s="237"/>
+      <c r="D78" s="243"/>
+      <c r="E78" s="212"/>
       <c r="F78" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="204"/>
+      <c r="G78" s="213"/>
       <c r="H78" s="88" t="s">
         <v>161</v>
       </c>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="M78" s="84"/>
       <c r="N78" s="83"/>
-      <c r="O78" s="196"/>
+      <c r="O78" s="197"/>
       <c r="P78" s="69"/>
       <c r="Q78" s="68"/>
       <c r="R78" s="68"/>
@@ -10744,14 +10744,14 @@
       <c r="BX78" s="68"/>
     </row>
     <row r="79" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="206"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="213"/>
-      <c r="E79" s="208"/>
-      <c r="F79" s="203" t="s">
+      <c r="B79" s="237"/>
+      <c r="C79" s="237"/>
+      <c r="D79" s="243"/>
+      <c r="E79" s="212"/>
+      <c r="F79" s="216" t="s">
         <v>162</v>
       </c>
-      <c r="G79" s="204"/>
+      <c r="G79" s="213"/>
       <c r="H79" s="88" t="s">
         <v>163</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="M79" s="84"/>
       <c r="N79" s="83"/>
-      <c r="O79" s="196"/>
+      <c r="O79" s="197"/>
       <c r="P79" s="69"/>
       <c r="Q79" s="68"/>
       <c r="R79" s="68"/>
@@ -10833,12 +10833,12 @@
       <c r="BX79" s="68"/>
     </row>
     <row r="80" spans="2:76" s="16" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="206"/>
-      <c r="C80" s="206"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="208"/>
-      <c r="F80" s="203"/>
-      <c r="G80" s="204"/>
+      <c r="B80" s="237"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="243"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="213"/>
       <c r="H80" s="88" t="s">
         <v>165</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="N80" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="O80" s="196"/>
+      <c r="O80" s="197"/>
       <c r="P80" s="68"/>
       <c r="Q80" s="68"/>
       <c r="R80" s="68"/>
@@ -10924,14 +10924,14 @@
       <c r="BX80" s="68"/>
     </row>
     <row r="81" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="206"/>
-      <c r="C81" s="206"/>
-      <c r="D81" s="213"/>
-      <c r="E81" s="208"/>
+      <c r="B81" s="237"/>
+      <c r="C81" s="237"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="212"/>
       <c r="F81" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="204"/>
+      <c r="G81" s="213"/>
       <c r="H81" s="88" t="s">
         <v>168</v>
       </c>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="M81" s="84"/>
       <c r="N81" s="83"/>
-      <c r="O81" s="196"/>
+      <c r="O81" s="197"/>
       <c r="P81" s="68"/>
       <c r="Q81" s="68"/>
       <c r="R81" s="68"/>
@@ -11013,14 +11013,14 @@
       <c r="BX81" s="68"/>
     </row>
     <row r="82" spans="2:76" s="16" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="206"/>
-      <c r="C82" s="206"/>
-      <c r="D82" s="213"/>
-      <c r="E82" s="208"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="243"/>
+      <c r="E82" s="212"/>
       <c r="F82" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="G82" s="204"/>
+      <c r="G82" s="213"/>
       <c r="H82" s="88" t="s">
         <v>170</v>
       </c>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="M82" s="84"/>
       <c r="N82" s="83"/>
-      <c r="O82" s="196"/>
+      <c r="O82" s="197"/>
       <c r="P82" s="68"/>
       <c r="Q82" s="68"/>
       <c r="R82" s="68"/>
@@ -11102,14 +11102,14 @@
       <c r="BX82" s="68"/>
     </row>
     <row r="83" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="206"/>
-      <c r="C83" s="206"/>
-      <c r="D83" s="213"/>
-      <c r="E83" s="208"/>
+      <c r="B83" s="237"/>
+      <c r="C83" s="237"/>
+      <c r="D83" s="243"/>
+      <c r="E83" s="212"/>
       <c r="F83" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="G83" s="204"/>
+      <c r="G83" s="213"/>
       <c r="H83" s="88" t="s">
         <v>172</v>
       </c>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="M83" s="84"/>
       <c r="N83" s="83"/>
-      <c r="O83" s="196"/>
+      <c r="O83" s="197"/>
       <c r="P83" s="68"/>
       <c r="Q83" s="68"/>
       <c r="R83" s="68"/>
@@ -11191,14 +11191,14 @@
       <c r="BX83" s="68"/>
     </row>
     <row r="84" spans="2:76" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="206"/>
-      <c r="C84" s="206"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="208"/>
+      <c r="B84" s="237"/>
+      <c r="C84" s="237"/>
+      <c r="D84" s="243"/>
+      <c r="E84" s="212"/>
       <c r="F84" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="G84" s="204"/>
+      <c r="G84" s="213"/>
       <c r="H84" s="88" t="s">
         <v>175</v>
       </c>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="M84" s="84"/>
       <c r="N84" s="83"/>
-      <c r="O84" s="196"/>
+      <c r="O84" s="197"/>
       <c r="P84" s="68"/>
       <c r="Q84" s="68"/>
       <c r="R84" s="68"/>
@@ -11280,14 +11280,14 @@
       <c r="BX84" s="68"/>
     </row>
     <row r="85" spans="2:76" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="207"/>
-      <c r="C85" s="207"/>
-      <c r="D85" s="214"/>
-      <c r="E85" s="208"/>
+      <c r="B85" s="238"/>
+      <c r="C85" s="238"/>
+      <c r="D85" s="244"/>
+      <c r="E85" s="212"/>
       <c r="F85" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="G85" s="204"/>
+      <c r="G85" s="213"/>
       <c r="H85" s="88" t="s">
         <v>176</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="L85" s="83"/>
       <c r="M85" s="84"/>
       <c r="N85" s="83"/>
-      <c r="O85" s="197"/>
+      <c r="O85" s="198"/>
       <c r="P85" s="68"/>
       <c r="Q85" s="68"/>
       <c r="R85" s="68"/>
@@ -11378,10 +11378,10 @@
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="53"/>
-      <c r="G86" s="188" t="s">
+      <c r="G86" s="248" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="189"/>
+      <c r="H86" s="249"/>
       <c r="I86" s="53"/>
       <c r="J86" s="96"/>
       <c r="K86" s="62">
@@ -11469,39 +11469,33 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="P2:AX2"/>
-    <mergeCell ref="AY2:BX2"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AY5:BC5"/>
-    <mergeCell ref="BT5:BX5"/>
-    <mergeCell ref="BM5:BQ5"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O33:O51"/>
-    <mergeCell ref="BF5:BJ5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="G8:G29"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="E33:E51"/>
-    <mergeCell ref="G33:G51"/>
-    <mergeCell ref="F40:F50"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="G55:G73"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F60:F68"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="O55:O73"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="M60:M64"/>
+    <mergeCell ref="N60:N64"/>
+    <mergeCell ref="O77:O85"/>
+    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B55:B73"/>
+    <mergeCell ref="E55:E73"/>
+    <mergeCell ref="D6:D29"/>
+    <mergeCell ref="D33:D51"/>
+    <mergeCell ref="D55:D73"/>
+    <mergeCell ref="D77:D85"/>
+    <mergeCell ref="C6:C29"/>
+    <mergeCell ref="C33:C51"/>
+    <mergeCell ref="C55:C73"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="E77:E85"/>
+    <mergeCell ref="B33:B51"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -11518,33 +11512,39 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="B55:B73"/>
-    <mergeCell ref="E55:E73"/>
-    <mergeCell ref="D6:D29"/>
-    <mergeCell ref="D33:D51"/>
-    <mergeCell ref="D55:D73"/>
-    <mergeCell ref="D77:D85"/>
-    <mergeCell ref="C6:C29"/>
-    <mergeCell ref="C33:C51"/>
-    <mergeCell ref="C55:C73"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="E77:E85"/>
-    <mergeCell ref="B33:B51"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="O55:O73"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="M60:M64"/>
-    <mergeCell ref="N60:N64"/>
-    <mergeCell ref="O77:O85"/>
-    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="E33:E51"/>
+    <mergeCell ref="G33:G51"/>
+    <mergeCell ref="F40:F50"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="G55:G73"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F68"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G8:G29"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O33:O51"/>
+    <mergeCell ref="BF5:BJ5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="P2:AX2"/>
+    <mergeCell ref="AY2:BX2"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AY5:BC5"/>
+    <mergeCell ref="BT5:BX5"/>
+    <mergeCell ref="BM5:BQ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11558,7 +11558,7 @@
   </sheetPr>
   <dimension ref="A2:AW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -11799,13 +11799,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="261" t="s">
@@ -11934,9 +11934,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -11963,11 +11963,11 @@
       <c r="S6" s="104"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -11995,9 +11995,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="135" t="s">
         <v>207</v>
@@ -12066,9 +12066,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="135" t="s">
         <v>208</v>
@@ -12131,9 +12131,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -12192,9 +12192,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -12251,9 +12251,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="262"/>
       <c r="G11" s="135" t="s">
         <v>189</v>
@@ -12318,9 +12318,9 @@
     <row r="12" spans="1:49" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="262"/>
       <c r="G12" s="135" t="s">
         <v>210</v>
@@ -12389,9 +12389,9 @@
     <row r="13" spans="1:49" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="262"/>
       <c r="G13" s="135" t="s">
         <v>191</v>
@@ -12460,9 +12460,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="262"/>
       <c r="G14" s="111" t="s">
         <v>216</v>
@@ -12531,9 +12531,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
       <c r="F15" s="262"/>
       <c r="G15" s="135" t="s">
         <v>212</v>
@@ -12598,9 +12598,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="216"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="222"/>
       <c r="F16" s="262"/>
       <c r="G16" s="135" t="s">
         <v>213</v>
@@ -12661,9 +12661,9 @@
     <row r="17" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="260"/>
       <c r="B17" s="260"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="217"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="223"/>
       <c r="F17" s="262"/>
       <c r="G17" s="135" t="s">
         <v>214</v>
@@ -12811,7 +12811,7 @@
   <dimension ref="A2:AW25"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13053,16 +13053,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>200</v>
       </c>
       <c r="G5" s="159"/>
@@ -13188,10 +13188,10 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="277"/>
-      <c r="F6" s="242"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>201</v>
       </c>
@@ -13208,18 +13208,18 @@
       <c r="N6" s="264">
         <v>5000</v>
       </c>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
       <c r="T6" s="75"/>
       <c r="U6" s="75"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="190"/>
       <c r="AA6" s="75"/>
       <c r="AB6" s="75"/>
       <c r="AC6" s="104"/>
@@ -13247,10 +13247,10 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="277"/>
-      <c r="F7" s="242"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="148" t="s">
         <v>192</v>
       </c>
@@ -13318,10 +13318,10 @@
     <row r="8" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="277"/>
-      <c r="F8" s="242"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="111" t="s">
         <v>204</v>
       </c>
@@ -13378,10 +13378,10 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="277"/>
-      <c r="F9" s="242"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="12" t="s">
         <v>190</v>
       </c>
@@ -13437,10 +13437,10 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="277"/>
-      <c r="F10" s="242"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="156" t="s">
         <v>221</v>
       </c>
@@ -13490,10 +13490,10 @@
     <row r="11" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="277"/>
-      <c r="F11" s="242"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="148" t="s">
         <v>227</v>
       </c>
@@ -13561,10 +13561,10 @@
     <row r="12" spans="1:49" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="277"/>
-      <c r="F12" s="242"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>229</v>
       </c>
@@ -13614,10 +13614,10 @@
     <row r="13" spans="1:49" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="277"/>
-      <c r="F13" s="242"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="148" t="s">
         <v>228</v>
       </c>
@@ -13681,10 +13681,10 @@
     <row r="14" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="277"/>
-      <c r="F14" s="242"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="148" t="s">
         <v>230</v>
       </c>
@@ -13748,10 +13748,10 @@
     <row r="15" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="277"/>
-      <c r="F15" s="242"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="148" t="s">
         <v>233</v>
       </c>
@@ -13817,10 +13817,10 @@
     <row r="16" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="277"/>
-      <c r="F16" s="242"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="148" t="s">
         <v>231</v>
       </c>
@@ -13880,10 +13880,10 @@
     <row r="17" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="277"/>
-      <c r="F17" s="242"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="148" t="s">
         <v>232</v>
       </c>
@@ -13933,10 +13933,10 @@
     <row r="18" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="277"/>
-      <c r="F18" s="242"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="148" t="s">
         <v>234</v>
       </c>
@@ -13986,10 +13986,10 @@
     <row r="19" spans="1:49" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="277"/>
-      <c r="F19" s="242"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="148" t="s">
         <v>235</v>
       </c>
@@ -14039,10 +14039,10 @@
     <row r="20" spans="1:49" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="259"/>
       <c r="B20" s="259"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="277"/>
-      <c r="F20" s="242"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="148" t="s">
         <v>222</v>
       </c>
@@ -14102,10 +14102,10 @@
     <row r="21" spans="1:49" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="259"/>
       <c r="B21" s="259"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="277"/>
-      <c r="F21" s="242"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="156" t="s">
         <v>223</v>
       </c>
@@ -14164,10 +14164,10 @@
     <row r="22" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="259"/>
       <c r="B22" s="259"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="277"/>
-      <c r="F22" s="242"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="156" t="s">
         <v>224</v>
       </c>
@@ -14229,10 +14229,10 @@
     <row r="23" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="259"/>
       <c r="B23" s="259"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="277"/>
-      <c r="F23" s="242"/>
+      <c r="F23" s="206"/>
       <c r="G23" s="156" t="s">
         <v>225</v>
       </c>
@@ -14292,10 +14292,10 @@
     <row r="24" spans="1:49" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="260"/>
       <c r="B24" s="260"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
       <c r="E24" s="277"/>
-      <c r="F24" s="242"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="156" t="s">
         <v>226</v>
       </c>
@@ -14439,8 +14439,8 @@
   </sheetPr>
   <dimension ref="A2:AW17"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14680,13 +14680,13 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="279" t="s">
@@ -14815,9 +14815,9 @@
     <row r="6" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="262"/>
       <c r="G6" s="12" t="s">
         <v>22</v>
@@ -14876,9 +14876,9 @@
     <row r="7" spans="1:49" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="148" t="s">
         <v>239</v>
@@ -14947,9 +14947,9 @@
     <row r="8" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="148" t="s">
         <v>240</v>
@@ -15012,9 +15012,9 @@
     <row r="9" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="262"/>
       <c r="G9" s="111" t="s">
         <v>204</v>
@@ -15073,9 +15073,9 @@
     <row r="10" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="262"/>
       <c r="G10" s="12" t="s">
         <v>190</v>
@@ -15132,9 +15132,9 @@
     <row r="11" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="262"/>
       <c r="G11" s="148" t="s">
         <v>189</v>
@@ -15199,9 +15199,9 @@
     <row r="12" spans="1:49" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="262"/>
       <c r="G12" s="148" t="s">
         <v>245</v>
@@ -15268,9 +15268,9 @@
     <row r="13" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="280"/>
       <c r="G13" s="148" t="s">
         <v>191</v>
@@ -15335,9 +15335,9 @@
     <row r="14" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="280"/>
       <c r="G14" s="148" t="s">
         <v>241</v>
@@ -15404,9 +15404,9 @@
     <row r="15" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
       <c r="F15" s="280"/>
       <c r="G15" s="148" t="s">
         <v>242</v>
@@ -15466,9 +15466,9 @@
     <row r="16" spans="1:49" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="260"/>
       <c r="B16" s="260"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="217"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="223"/>
       <c r="F16" s="280"/>
       <c r="G16" s="148" t="s">
         <v>243</v>
@@ -15613,7 +15613,7 @@
   <dimension ref="A2:BW17"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15957,16 +15957,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>280</v>
       </c>
       <c r="G5" s="159"/>
@@ -16170,10 +16170,10 @@
     <row r="6" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -16255,10 +16255,10 @@
     <row r="7" spans="1:75" ht="52.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="156" t="s">
         <v>221</v>
       </c>
@@ -16348,10 +16348,10 @@
     <row r="8" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="156" t="s">
         <v>264</v>
       </c>
@@ -16429,10 +16429,10 @@
     <row r="9" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="111" t="s">
         <v>269</v>
       </c>
@@ -16524,10 +16524,10 @@
     <row r="10" spans="1:75" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="111" t="s">
         <v>274</v>
       </c>
@@ -16635,10 +16635,10 @@
     <row r="11" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="242"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="111" t="s">
         <v>270</v>
       </c>
@@ -16734,10 +16734,10 @@
     <row r="12" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="242"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>271</v>
       </c>
@@ -16829,10 +16829,10 @@
     <row r="13" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="156" t="s">
         <v>265</v>
       </c>
@@ -16920,10 +16920,10 @@
     <row r="14" spans="1:75" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="242"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="156" t="s">
         <v>267</v>
       </c>
@@ -17009,10 +17009,10 @@
     <row r="15" spans="1:75" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="242"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="156" t="s">
         <v>268</v>
       </c>
@@ -17230,8 +17230,8 @@
   </sheetPr>
   <dimension ref="A2:BI20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17518,16 +17518,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>247</v>
       </c>
       <c r="G5" s="159"/>
@@ -17689,10 +17689,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="225"/>
-      <c r="F6" s="242"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -17760,10 +17760,10 @@
     <row r="7" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="225"/>
-      <c r="F7" s="242"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="148" t="s">
         <v>248</v>
       </c>
@@ -17839,10 +17839,10 @@
     <row r="8" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="225"/>
-      <c r="F8" s="242"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="148" t="s">
         <v>249</v>
       </c>
@@ -17918,10 +17918,10 @@
     <row r="9" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="225"/>
-      <c r="F9" s="242"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="148" t="s">
         <v>250</v>
       </c>
@@ -17987,10 +17987,10 @@
     <row r="10" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="225"/>
-      <c r="F10" s="242"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="148" t="s">
         <v>251</v>
       </c>
@@ -18056,10 +18056,10 @@
     <row r="11" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="225"/>
-      <c r="F11" s="242"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="148" t="s">
         <v>252</v>
       </c>
@@ -18133,10 +18133,10 @@
     <row r="12" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="225"/>
-      <c r="F12" s="242"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="148" t="s">
         <v>253</v>
       </c>
@@ -18212,10 +18212,10 @@
     <row r="13" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="225"/>
-      <c r="F13" s="242"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="148" t="s">
         <v>254</v>
       </c>
@@ -18291,10 +18291,10 @@
     <row r="14" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="225"/>
-      <c r="F14" s="242"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="148" t="s">
         <v>255</v>
       </c>
@@ -18362,10 +18362,10 @@
     <row r="15" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="225"/>
-      <c r="F15" s="242"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="148" t="s">
         <v>256</v>
       </c>
@@ -18447,10 +18447,10 @@
     <row r="16" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="225"/>
-      <c r="F16" s="242"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="148" t="s">
         <v>257</v>
       </c>
@@ -18516,10 +18516,10 @@
     <row r="17" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="225"/>
-      <c r="F17" s="242"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="148" t="s">
         <v>258</v>
       </c>
@@ -18599,10 +18599,10 @@
     <row r="18" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="259"/>
       <c r="B18" s="259"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="225"/>
-      <c r="F18" s="242"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="148" t="s">
         <v>259</v>
       </c>
@@ -18680,10 +18680,10 @@
     <row r="19" spans="1:61" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="225"/>
-      <c r="F19" s="242"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="156" t="s">
         <v>132</v>
       </c>
@@ -18835,11 +18835,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:AU3"/>
-    <mergeCell ref="AV3:BI3"/>
     <mergeCell ref="N6:N20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A5:A19"/>
@@ -18848,6 +18843,11 @@
     <mergeCell ref="D5:D19"/>
     <mergeCell ref="E5:E19"/>
     <mergeCell ref="F5:F19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:AU3"/>
+    <mergeCell ref="AV3:BI3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
@@ -19123,13 +19123,13 @@
         <v>45082</v>
       </c>
       <c r="B4" s="258"/>
-      <c r="C4" s="209" t="s">
+      <c r="C4" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="221" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="279" t="s">
@@ -19273,9 +19273,9 @@
     <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
       <c r="B5" s="259"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="216"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="222"/>
       <c r="F5" s="280"/>
       <c r="G5" s="112" t="s">
         <v>190</v>
@@ -19337,9 +19337,9 @@
     <row r="6" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="263"/>
       <c r="G6" s="156" t="s">
         <v>221</v>
@@ -19409,9 +19409,9 @@
     <row r="7" spans="1:54" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="263"/>
       <c r="G7" s="156" t="s">
         <v>287</v>
@@ -19481,9 +19481,9 @@
     <row r="8" spans="1:54" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
       <c r="F8" s="263"/>
       <c r="G8" s="156" t="s">
         <v>288</v>
@@ -19553,9 +19553,9 @@
     <row r="9" spans="1:54" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="263"/>
       <c r="G9" s="156" t="s">
         <v>289</v>
@@ -19611,9 +19611,9 @@
     <row r="10" spans="1:54" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="280"/>
       <c r="G10" s="161" t="s">
         <v>292</v>
@@ -19691,9 +19691,9 @@
     <row r="11" spans="1:54" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="280"/>
       <c r="G11" s="156" t="s">
         <v>290</v>
@@ -19763,9 +19763,9 @@
     <row r="12" spans="1:54" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="280"/>
       <c r="G12" s="156" t="s">
         <v>291</v>
@@ -20215,16 +20215,16 @@
         <v>45082</v>
       </c>
       <c r="B5" s="258"/>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="209" t="s">
+      <c r="D5" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="206" t="s">
         <v>294</v>
       </c>
       <c r="G5" s="159"/>
@@ -20386,10 +20386,10 @@
     <row r="6" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
       <c r="B6" s="259"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="242"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="12" t="s">
         <v>190</v>
       </c>
@@ -20455,10 +20455,10 @@
     <row r="7" spans="1:61" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
       <c r="B7" s="259"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="242"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="156" t="s">
         <v>295</v>
       </c>
@@ -20534,10 +20534,10 @@
     <row r="8" spans="1:61" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="259"/>
       <c r="B8" s="259"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="156" t="s">
         <v>299</v>
       </c>
@@ -20613,10 +20613,10 @@
     <row r="9" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="178" t="s">
         <v>300</v>
       </c>
@@ -20690,10 +20690,10 @@
     <row r="10" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="259"/>
       <c r="B10" s="259"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="242"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="206"/>
       <c r="G10" s="178" t="s">
         <v>296</v>
       </c>
@@ -20755,10 +20755,10 @@
     <row r="11" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="259"/>
       <c r="B11" s="259"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="242"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="182" t="s">
         <v>301</v>
       </c>
@@ -20832,10 +20832,10 @@
     <row r="12" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="259"/>
       <c r="B12" s="259"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="242"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="206"/>
       <c r="G12" s="182" t="s">
         <v>302</v>
       </c>
@@ -20909,10 +20909,10 @@
     <row r="13" spans="1:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="259"/>
       <c r="B13" s="259"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="182" t="s">
         <v>307</v>
       </c>
@@ -20986,10 +20986,10 @@
     <row r="14" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="259"/>
       <c r="B14" s="259"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="242"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="182" t="s">
         <v>303</v>
       </c>
@@ -21063,10 +21063,10 @@
     <row r="15" spans="1:61" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="242"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="182" t="s">
         <v>306</v>
       </c>
@@ -21136,10 +21136,10 @@
     <row r="16" spans="1:61" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="242"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="178" t="s">
         <v>297</v>
       </c>
@@ -21213,10 +21213,10 @@
     <row r="17" spans="1:75" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="259"/>
       <c r="B17" s="259"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="242"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="156" t="s">
         <v>311</v>
       </c>
@@ -21685,16 +21685,16 @@
         <v>45082</v>
       </c>
       <c r="B25" s="258"/>
-      <c r="C25" s="209" t="s">
+      <c r="C25" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="209" t="s">
+      <c r="D25" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="215" t="s">
+      <c r="E25" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="242" t="s">
+      <c r="F25" s="206" t="s">
         <v>305</v>
       </c>
       <c r="G25" s="175"/>
@@ -21892,10 +21892,10 @@
     <row r="26" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="259"/>
       <c r="B26" s="259"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="242"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="206"/>
       <c r="G26" s="12" t="s">
         <v>190</v>
       </c>
@@ -21971,10 +21971,10 @@
     <row r="27" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="259"/>
       <c r="B27" s="259"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="242"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="206"/>
       <c r="G27" s="182" t="s">
         <v>127</v>
       </c>
@@ -22060,10 +22060,10 @@
     <row r="28" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="259"/>
       <c r="B28" s="259"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="242"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="182" t="s">
         <v>159</v>
       </c>
@@ -22151,10 +22151,10 @@
     <row r="29" spans="1:75" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="259"/>
       <c r="B29" s="259"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="242"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="182" t="s">
         <v>161</v>
       </c>
@@ -22318,17 +22318,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F5:F17"/>
-    <mergeCell ref="N6:N18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="F30:G30"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -22345,6 +22334,17 @@
     <mergeCell ref="C5:C17"/>
     <mergeCell ref="D5:D17"/>
     <mergeCell ref="E5:E17"/>
+    <mergeCell ref="F5:F17"/>
+    <mergeCell ref="N6:N18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
